--- a/RIMEDIE/Directorio_Contactos_CDMX.xlsx
+++ b/RIMEDIE/Directorio_Contactos_CDMX.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="30" windowWidth="23715" windowHeight="10050" activeTab="1"/>
+    <workbookView xWindow="120" yWindow="30" windowWidth="23715" windowHeight="10050"/>
   </bookViews>
   <sheets>
     <sheet name="Agentes Educativos" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="229">
   <si>
     <t>Nombre de la Escuela</t>
   </si>
@@ -382,6 +382,327 @@
   </si>
   <si>
     <t>Estado</t>
+  </si>
+  <si>
+    <t>Ing. Josué Gómez Parada</t>
+  </si>
+  <si>
+    <t>Dirección de Proyectos de Identificación de Oportunidades de Innovación</t>
+  </si>
+  <si>
+    <t>55121012 ext 311</t>
+  </si>
+  <si>
+    <t>j.gomez@sexiti.cdmx.gob.mx</t>
+  </si>
+  <si>
+    <t>Mtra. Norma Angélica Antonio Monror</t>
+  </si>
+  <si>
+    <t>Dirección de Acervo Bibliohemerografico</t>
+  </si>
+  <si>
+    <t>Manuel Jaiír Salarich González</t>
+  </si>
+  <si>
+    <t>Dirección de Educación Inclusiva, Intercultural y Bilingüe</t>
+  </si>
+  <si>
+    <t>jair.salarich@educacion.cdmx.gob.mx</t>
+  </si>
+  <si>
+    <t>M. en C. Rodrigo Díaz Ayala</t>
+  </si>
+  <si>
+    <t>Dirección de Transferencia, Escalamiento y Propiedad Intelectual</t>
+  </si>
+  <si>
+    <t>55121012 ext 308</t>
+  </si>
+  <si>
+    <t>r.diaz@seciti.cdmx.gob.mx</t>
+  </si>
+  <si>
+    <t>Mtro. Rodolfo Ledema Valdez</t>
+  </si>
+  <si>
+    <t>Dirección de Divulgación y Fomento</t>
+  </si>
+  <si>
+    <t>55121012 ext 205</t>
+  </si>
+  <si>
+    <t>riedesma@seciti.cdmx.gob.mx</t>
+  </si>
+  <si>
+    <t>Dra. Alma Cristal Hernández Mondragón</t>
+  </si>
+  <si>
+    <t>Dirección de Ciencias, Centros y Transferencia de Conocimiento</t>
+  </si>
+  <si>
+    <t>55121012 ext 207</t>
+  </si>
+  <si>
+    <t>ahernandezm@secii.cdmx.gob.mx</t>
+  </si>
+  <si>
+    <t>Lic. María Eugenia Ambriz Chávez</t>
+  </si>
+  <si>
+    <t>Dirección de Programas de Bachillerato</t>
+  </si>
+  <si>
+    <t>51340770 ext 1538</t>
+  </si>
+  <si>
+    <t>maria.ambriz@educacion.cdmx.gob.mx</t>
+  </si>
+  <si>
+    <t>Luis Eduardo Sánchez Toscano</t>
+  </si>
+  <si>
+    <t>Subdirección de Inclusión Educativa de la Diversidad Sexual y Funcional</t>
+  </si>
+  <si>
+    <t>luis.sanchez@educacion.cdmx.gob.mx</t>
+  </si>
+  <si>
+    <t>Edgar Fredy Jimeno Montiel</t>
+  </si>
+  <si>
+    <t>Subdirección de Coordinación Académica en Ciberescuelas</t>
+  </si>
+  <si>
+    <t>edgar.jimeno@educacion.cdmx.gob.mx</t>
+  </si>
+  <si>
+    <t>Carlos Eduardo Garavitos Cervantes</t>
+  </si>
+  <si>
+    <t>Subdirección Operativa Centro y Oriente</t>
+  </si>
+  <si>
+    <t>carlos.garavitos@educacion.cdmx.gob.mx</t>
+  </si>
+  <si>
+    <t>Derek Jordan Moreno Casasola</t>
+  </si>
+  <si>
+    <t>Subdirección de Educación para la Autonomía Económica</t>
+  </si>
+  <si>
+    <t>derek.jordan@educacion.cdmx.gob.mx</t>
+  </si>
+  <si>
+    <t>Bertha Patricia Alvarado García</t>
+  </si>
+  <si>
+    <t>Subdirección de Evaluación y Estadística</t>
+  </si>
+  <si>
+    <t>51340770 ext 1414</t>
+  </si>
+  <si>
+    <t>bertha.alvarado@educacion.cdmx.gob.mx</t>
+  </si>
+  <si>
+    <t>José Eloy Torres Lora</t>
+  </si>
+  <si>
+    <t>Subdirección de Recursos Materiales, Abastecimiento y Servicios en SECTEI</t>
+  </si>
+  <si>
+    <t>51340770 ext 1123</t>
+  </si>
+  <si>
+    <t>jose.torres@educacion.cdmx.gob.mx</t>
+  </si>
+  <si>
+    <t>Sergio Arturo Bracamontes Castro</t>
+  </si>
+  <si>
+    <t>Subdirección de Administración de Capital Humano en SECTEI</t>
+  </si>
+  <si>
+    <t>51340770 ext 1101</t>
+  </si>
+  <si>
+    <t>sergio.bracamonte@educacion.cdmx.gob.mx</t>
+  </si>
+  <si>
+    <t>Carolina Cruz Sánchez</t>
+  </si>
+  <si>
+    <t>Subdirección de Colecciones Físicas</t>
+  </si>
+  <si>
+    <t>51340770 ext 1234</t>
+  </si>
+  <si>
+    <t>carolina.cruz@educacion.cdmx.gob.mx</t>
+  </si>
+  <si>
+    <t>María Cristina González Magaña</t>
+  </si>
+  <si>
+    <t>Subdirección de Educación para la Innovación y Conciliación</t>
+  </si>
+  <si>
+    <t>cristina.gonzalez@educacion.cdmx.gob.mx</t>
+  </si>
+  <si>
+    <t>Lic. Andrea Moreno Ruiz</t>
+  </si>
+  <si>
+    <t>Subdirección de Programas de Estudio de Nivel Superior</t>
+  </si>
+  <si>
+    <t>andrea.moreno@educacion.cdmx.gob.mx</t>
+  </si>
+  <si>
+    <t>Lic. María Asunción Monserrat Dueña Barrera</t>
+  </si>
+  <si>
+    <t>Subdirección de Bachillerato en Línea</t>
+  </si>
+  <si>
+    <t>montserrat.barrera@educacion.cdmx.gob.mx</t>
+  </si>
+  <si>
+    <t>Lic. Alejandra Graciela Marín Fuentes</t>
+  </si>
+  <si>
+    <t>Subdirección de Vinculación</t>
+  </si>
+  <si>
+    <t>51340770 ext 1541</t>
+  </si>
+  <si>
+    <t>alejandra.marin@educacion.cdmx.gob.mx</t>
+  </si>
+  <si>
+    <t>Dra. María Antonia Rodríguez del Castillo</t>
+  </si>
+  <si>
+    <t>Subdirección de Monitoreo y Evaluación</t>
+  </si>
+  <si>
+    <t>51340770 ext 1509</t>
+  </si>
+  <si>
+    <t>ma.rodriguez@educacion.cdmx.gob.mx</t>
+  </si>
+  <si>
+    <t>Lic. Martha Luvia Gómez Sánchez</t>
+  </si>
+  <si>
+    <t>Subdirección de Apoyo a la Docencia</t>
+  </si>
+  <si>
+    <t>51370770 ext 1436</t>
+  </si>
+  <si>
+    <t>martha.luvia@educacion.cdmx.gob.mx</t>
+  </si>
+  <si>
+    <t>Lic. Edith Rocío Munguía Cortés</t>
+  </si>
+  <si>
+    <t>Subdirección de Enlace y Desarrollo Organizacional</t>
+  </si>
+  <si>
+    <t>55121012 ext 401</t>
+  </si>
+  <si>
+    <t>Lic. Javier Sánchez Huerta</t>
+  </si>
+  <si>
+    <t>Subdirección de Materiales Educativos</t>
+  </si>
+  <si>
+    <t>javier.huerta@educación.cdmx.gob.mx</t>
+  </si>
+  <si>
+    <t>Lic. Edith Méndez Osorio</t>
+  </si>
+  <si>
+    <t>Subdirección de Formación Académica</t>
+  </si>
+  <si>
+    <t>Subdirección de Enlace e Información Pública</t>
+  </si>
+  <si>
+    <t>Lic. Xasabana Barbosa Aguilar</t>
+  </si>
+  <si>
+    <t>51121012 ext 108</t>
+  </si>
+  <si>
+    <t>Lic. Perla Diana Encarnación García</t>
+  </si>
+  <si>
+    <t>Subdirección de Legislación y Análisis Normativo</t>
+  </si>
+  <si>
+    <t>51340770 ext 108</t>
+  </si>
+  <si>
+    <t>perla.encarnacion@educacion.cdmx.gob.mx</t>
+  </si>
+  <si>
+    <t>Lic. Jaqueline Reyes Martínez</t>
+  </si>
+  <si>
+    <t>Subdirección de Planeación</t>
+  </si>
+  <si>
+    <t>51340770 ext 1406</t>
+  </si>
+  <si>
+    <t>Lic. América Martínez Fraustro</t>
+  </si>
+  <si>
+    <t>Subdirección de Educación a Distancia</t>
+  </si>
+  <si>
+    <t>jreyes@educacion.cdmx.gob.mx</t>
+  </si>
+  <si>
+    <t>america.martinez@educacion.df.gob.mx</t>
+  </si>
+  <si>
+    <t>Lic. Cristina del Rocío Vázquez López</t>
+  </si>
+  <si>
+    <t>Subdirección de Estudios de Pregrado y Postgrado Presencial</t>
+  </si>
+  <si>
+    <t>51340770 ext 1426</t>
+  </si>
+  <si>
+    <t>cristina.vazquez@educacion.cdmx.gob.mx</t>
+  </si>
+  <si>
+    <t>SEP</t>
+  </si>
+  <si>
+    <t>Director de Diagnóstico y Evaluación </t>
+  </si>
+  <si>
+    <t>srangel@sep.gob.mx </t>
+  </si>
+  <si>
+    <t>Saúl Rangel Torrijo</t>
+  </si>
+  <si>
+    <t>Insurgentes Norte 423 Col.Unidad Habitacional Nonoalco Tlatelolco CUAUHTEMOC, Distrito Federal México, C.P. 06900 </t>
+  </si>
+  <si>
+    <t>Unidad Administrativa</t>
+  </si>
+  <si>
+    <t>DIRECCIÓN GENERAL DEL SISTEMA DE ADMINISTRACIÓN DE LA NÓMINA EDUCATIVA FEDERALIZADA </t>
   </si>
 </sst>
 </file>
@@ -441,7 +762,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -492,12 +813,86 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -518,6 +913,31 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -820,459 +1240,1124 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O21"/>
+  <dimension ref="A1:P51"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
+      <selection activeCell="D57" sqref="D57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="32.85546875" style="2" customWidth="1"/>
-    <col min="2" max="2" width="32.42578125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="24" style="2" customWidth="1"/>
-    <col min="4" max="4" width="19" style="2" customWidth="1"/>
-    <col min="5" max="5" width="42" style="2" customWidth="1"/>
-    <col min="6" max="6" width="53.85546875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="24" style="2" customWidth="1"/>
+    <col min="3" max="3" width="32.42578125" style="10" customWidth="1"/>
+    <col min="4" max="4" width="37.140625" style="16" customWidth="1"/>
+    <col min="5" max="5" width="19" style="13" customWidth="1"/>
+    <col min="6" max="6" width="42" style="2" customWidth="1"/>
+    <col min="7" max="7" width="53.85546875" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="55.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" ht="55.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
         <v>36</v>
       </c>
       <c r="B1" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C1" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="C1" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="14" t="s">
+        <v>227</v>
+      </c>
+      <c r="E1" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="F1" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="G1" s="6" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="45" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>40</v>
       </c>
       <c r="B2" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C2" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="C2" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="D2" s="4"/>
-      <c r="E2" s="5" t="s">
+      <c r="D2" s="15"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="G2" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="N2">
-        <v>2</v>
-      </c>
-      <c r="O2" s="1" t="s">
+      <c r="O2">
+        <v>5</v>
+      </c>
+      <c r="P2" s="1" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="45" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>45</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C3" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="15"/>
+      <c r="E3" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="F3" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="G3" s="2" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="45" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>49</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C4" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="D4" s="2">
+      <c r="D4" s="15"/>
+      <c r="E4" s="13">
         <v>51340770</v>
       </c>
-      <c r="F4" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" ht="45" x14ac:dyDescent="0.25">
+      <c r="G4" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>52</v>
       </c>
       <c r="B5" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C5" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="15"/>
+      <c r="E5" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="F5" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="F5" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" ht="45" x14ac:dyDescent="0.25">
+      <c r="G5" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>56</v>
       </c>
       <c r="B6" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C6" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="15"/>
+      <c r="E6" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="G6" s="2" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="45" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>59</v>
       </c>
       <c r="B7" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C7" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="D7" s="2" t="s">
+      <c r="D7" s="15"/>
+      <c r="E7" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="F7" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="F7" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" ht="45" x14ac:dyDescent="0.25">
+      <c r="G7" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>63</v>
       </c>
       <c r="B8" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C8" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="C8" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="D8" s="2" t="s">
+      <c r="D8" s="15"/>
+      <c r="E8" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="F8" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="F8" s="2" t="s">
+      <c r="G8" s="2" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="45" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>67</v>
       </c>
       <c r="B9" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C9" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="C9" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="D9" s="2" t="s">
+      <c r="D9" s="15"/>
+      <c r="E9" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="F9" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="F9" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" ht="45" x14ac:dyDescent="0.25">
+      <c r="G9" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" ht="45" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>71</v>
       </c>
       <c r="B10" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C10" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="C10" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="D10" s="2" t="s">
+      <c r="D10" s="15"/>
+      <c r="E10" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="E10" s="3" t="s">
+      <c r="F10" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="F10" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" ht="45" x14ac:dyDescent="0.25">
+      <c r="G10" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" ht="45" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>75</v>
       </c>
       <c r="B11" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C11" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="C11" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="D11" s="2" t="s">
+      <c r="D11" s="15"/>
+      <c r="E11" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="E11" s="3" t="s">
+      <c r="F11" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="F11" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" ht="45" x14ac:dyDescent="0.25">
+      <c r="G11" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" ht="45" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>81</v>
       </c>
       <c r="B12" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C12" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="C12" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="D12" s="2" t="s">
+      <c r="D12" s="15"/>
+      <c r="E12" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="E12" s="3" t="s">
+      <c r="F12" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="F12" s="2" t="s">
+      <c r="G12" s="2" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="13" spans="1:15" ht="45" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" ht="45" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>85</v>
       </c>
       <c r="B13" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C13" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="C13" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="D13" s="2" t="s">
+      <c r="D13" s="15"/>
+      <c r="E13" s="13" t="s">
         <v>87</v>
       </c>
-      <c r="E13" s="3" t="s">
+      <c r="F13" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="F13" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" ht="45" x14ac:dyDescent="0.25">
+      <c r="G13" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" ht="45" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>89</v>
       </c>
       <c r="B14" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C14" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="C14" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="D14" s="2" t="s">
+      <c r="D14" s="15"/>
+      <c r="E14" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="E14" s="3" t="s">
+      <c r="F14" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="F14" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" ht="45" x14ac:dyDescent="0.25">
+      <c r="G14" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" ht="45" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>93</v>
       </c>
       <c r="B15" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C15" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="C15" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="D15" s="2" t="s">
+      <c r="D15" s="15"/>
+      <c r="E15" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="E15" s="3" t="s">
+      <c r="F15" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="F15" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" ht="45" x14ac:dyDescent="0.25">
+      <c r="G15" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" ht="45" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>96</v>
       </c>
       <c r="B16" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C16" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="C16" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="D16" s="2" t="s">
+      <c r="D16" s="15"/>
+      <c r="E16" s="13" t="s">
         <v>98</v>
       </c>
-      <c r="F16" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="G16" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>99</v>
       </c>
       <c r="B17" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C17" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="C17" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="D17" s="2" t="s">
+      <c r="D17" s="15"/>
+      <c r="E17" s="13" t="s">
         <v>101</v>
       </c>
-      <c r="E17" s="3" t="s">
+      <c r="F17" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="F17" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="G17" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>103</v>
       </c>
       <c r="B18" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C18" s="10" t="s">
         <v>104</v>
       </c>
-      <c r="C18" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="D18" s="2" t="s">
+      <c r="D18" s="15"/>
+      <c r="E18" s="13" t="s">
         <v>105</v>
       </c>
-      <c r="E18" s="3" t="s">
+      <c r="F18" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="F18" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="G18" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>107</v>
       </c>
       <c r="B19" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C19" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="C19" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="D19" s="2" t="s">
+      <c r="D19" s="15"/>
+      <c r="E19" s="13" t="s">
         <v>109</v>
       </c>
-      <c r="E19" s="3" t="s">
+      <c r="F19" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="F19" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="G19" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>111</v>
       </c>
       <c r="B20" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C20" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="C20" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="D20" s="2" t="s">
+      <c r="D20" s="15"/>
+      <c r="E20" s="13" t="s">
         <v>113</v>
       </c>
-      <c r="E20" s="3" t="s">
+      <c r="F20" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="F20" s="2" t="s">
+      <c r="G20" s="2" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>115</v>
       </c>
       <c r="B21" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C21" s="10" t="s">
         <v>116</v>
       </c>
-      <c r="C21" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="D21" s="2" t="s">
+      <c r="D21" s="15"/>
+      <c r="E21" s="13" t="s">
         <v>117</v>
       </c>
-      <c r="E21" s="3" t="s">
+      <c r="F21" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="F21" s="2" t="s">
-        <v>51</v>
+      <c r="G21" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C22" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="D22" s="15"/>
+      <c r="E22" s="13" t="s">
+        <v>124</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C23" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="D23" s="15"/>
+      <c r="G23" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C24" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="D24" s="15"/>
+      <c r="E24" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C25" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="D25" s="15"/>
+      <c r="E25" s="13" t="s">
+        <v>133</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C26" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="D26" s="15"/>
+      <c r="E26" s="13" t="s">
+        <v>137</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C27" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="D27" s="15"/>
+      <c r="E27" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C28" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="D28" s="15"/>
+      <c r="E28" s="13" t="s">
+        <v>145</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C29" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="D29" s="15"/>
+      <c r="E29" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A30" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C30" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="D30" s="15"/>
+      <c r="E30" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A31" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C31" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="D31" s="15"/>
+      <c r="E31" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="F31" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A32" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C32" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="D32" s="15"/>
+      <c r="E32" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A33" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C33" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="D33" s="15"/>
+      <c r="E33" s="13" t="s">
+        <v>161</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A34" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C34" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="D34" s="15"/>
+      <c r="E34" s="13" t="s">
+        <v>165</v>
+      </c>
+      <c r="F34" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A35" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C35" s="10" t="s">
+        <v>168</v>
+      </c>
+      <c r="D35" s="15"/>
+      <c r="E35" s="13" t="s">
+        <v>169</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A36" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C36" s="10" t="s">
+        <v>172</v>
+      </c>
+      <c r="D36" s="15"/>
+      <c r="E36" s="13" t="s">
+        <v>173</v>
+      </c>
+      <c r="F36" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A37" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C37" s="10" t="s">
+        <v>176</v>
+      </c>
+      <c r="D37" s="15"/>
+      <c r="E37" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="F37" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A38" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C38" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="D38" s="15"/>
+      <c r="E38" s="13">
+        <v>51340770</v>
+      </c>
+      <c r="F38" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A39" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C39" s="10" t="s">
+        <v>182</v>
+      </c>
+      <c r="D39" s="15"/>
+      <c r="E39" s="13">
+        <v>51340770</v>
+      </c>
+      <c r="F39" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A40" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C40" s="10" t="s">
+        <v>185</v>
+      </c>
+      <c r="D40" s="15"/>
+      <c r="E40" s="13" t="s">
+        <v>186</v>
+      </c>
+      <c r="F40" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A41" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C41" s="10" t="s">
+        <v>189</v>
+      </c>
+      <c r="D41" s="15"/>
+      <c r="E41" s="13" t="s">
+        <v>190</v>
+      </c>
+      <c r="F41" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A42" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C42" s="10" t="s">
+        <v>193</v>
+      </c>
+      <c r="D42" s="15"/>
+      <c r="E42" s="13" t="s">
+        <v>194</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="G42" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A43" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C43" s="10" t="s">
+        <v>197</v>
+      </c>
+      <c r="D43" s="15"/>
+      <c r="E43" s="13" t="s">
+        <v>198</v>
+      </c>
+      <c r="G43" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A44" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C44" s="10" t="s">
+        <v>200</v>
+      </c>
+      <c r="D44" s="15"/>
+      <c r="E44" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="F44" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="G44" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A45" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C45" s="10" t="s">
+        <v>203</v>
+      </c>
+      <c r="D45" s="15"/>
+      <c r="E45" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="G45" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A46" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C46" s="10" t="s">
+        <v>204</v>
+      </c>
+      <c r="D46" s="15"/>
+      <c r="E46" s="13" t="s">
+        <v>206</v>
+      </c>
+      <c r="G46" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A47" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C47" s="10" t="s">
+        <v>208</v>
+      </c>
+      <c r="D47" s="15"/>
+      <c r="E47" s="13" t="s">
+        <v>209</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="G47" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A48" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C48" s="10" t="s">
+        <v>212</v>
+      </c>
+      <c r="D48" s="15"/>
+      <c r="E48" s="13" t="s">
+        <v>213</v>
+      </c>
+      <c r="F48" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="G48" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A49" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C49" s="10" t="s">
+        <v>215</v>
+      </c>
+      <c r="D49" s="15"/>
+      <c r="E49" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="F49" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="G49" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A50" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C50" s="10" t="s">
+        <v>219</v>
+      </c>
+      <c r="D50" s="15"/>
+      <c r="E50" s="13" t="s">
+        <v>220</v>
+      </c>
+      <c r="F50" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="G50" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A51" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="C51" s="10" t="s">
+        <v>223</v>
+      </c>
+      <c r="D51" s="15" t="s">
+        <v>228</v>
+      </c>
+      <c r="F51" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="G51" s="2" t="s">
+        <v>226</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1"/>
-    <hyperlink ref="E3" r:id="rId2"/>
-    <hyperlink ref="E5" r:id="rId3"/>
-    <hyperlink ref="E7" r:id="rId4"/>
-    <hyperlink ref="E8" r:id="rId5"/>
-    <hyperlink ref="E9" r:id="rId6"/>
-    <hyperlink ref="E10" r:id="rId7"/>
-    <hyperlink ref="E11" r:id="rId8"/>
-    <hyperlink ref="O2" r:id="rId9"/>
-    <hyperlink ref="E12" r:id="rId10"/>
-    <hyperlink ref="E13" r:id="rId11"/>
-    <hyperlink ref="E14" r:id="rId12"/>
-    <hyperlink ref="E15" r:id="rId13"/>
-    <hyperlink ref="E17" r:id="rId14"/>
-    <hyperlink ref="E18" r:id="rId15"/>
-    <hyperlink ref="E19" r:id="rId16"/>
-    <hyperlink ref="E20" r:id="rId17"/>
-    <hyperlink ref="E21" r:id="rId18"/>
+    <hyperlink ref="F2" r:id="rId1"/>
+    <hyperlink ref="F3" r:id="rId2"/>
+    <hyperlink ref="F5" r:id="rId3"/>
+    <hyperlink ref="F7" r:id="rId4"/>
+    <hyperlink ref="F8" r:id="rId5"/>
+    <hyperlink ref="F9" r:id="rId6"/>
+    <hyperlink ref="F10" r:id="rId7"/>
+    <hyperlink ref="F11" r:id="rId8"/>
+    <hyperlink ref="P2" r:id="rId9"/>
+    <hyperlink ref="F12" r:id="rId10"/>
+    <hyperlink ref="F13" r:id="rId11"/>
+    <hyperlink ref="F14" r:id="rId12"/>
+    <hyperlink ref="F15" r:id="rId13"/>
+    <hyperlink ref="F17" r:id="rId14"/>
+    <hyperlink ref="F18" r:id="rId15"/>
+    <hyperlink ref="F19" r:id="rId16"/>
+    <hyperlink ref="F20" r:id="rId17"/>
+    <hyperlink ref="F21" r:id="rId18"/>
+    <hyperlink ref="F22" r:id="rId19"/>
+    <hyperlink ref="F24" r:id="rId20"/>
+    <hyperlink ref="F25" r:id="rId21"/>
+    <hyperlink ref="F26" r:id="rId22"/>
+    <hyperlink ref="F27" r:id="rId23"/>
+    <hyperlink ref="F28" r:id="rId24"/>
+    <hyperlink ref="F29" r:id="rId25"/>
+    <hyperlink ref="F30" r:id="rId26"/>
+    <hyperlink ref="F31" r:id="rId27"/>
+    <hyperlink ref="F32" r:id="rId28"/>
+    <hyperlink ref="F33" r:id="rId29"/>
+    <hyperlink ref="F34" r:id="rId30"/>
+    <hyperlink ref="F35" r:id="rId31"/>
+    <hyperlink ref="F36" r:id="rId32"/>
+    <hyperlink ref="F37" r:id="rId33"/>
+    <hyperlink ref="F38" r:id="rId34"/>
+    <hyperlink ref="F39" r:id="rId35"/>
+    <hyperlink ref="F40" r:id="rId36"/>
+    <hyperlink ref="F41" r:id="rId37"/>
+    <hyperlink ref="F42" r:id="rId38"/>
+    <hyperlink ref="F44" r:id="rId39"/>
+    <hyperlink ref="F47" r:id="rId40"/>
+    <hyperlink ref="F48" r:id="rId41"/>
+    <hyperlink ref="F49" r:id="rId42"/>
+    <hyperlink ref="F50" r:id="rId43"/>
+    <hyperlink ref="F51" r:id="rId44"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId45"/>
 </worksheet>
 </file>
 
@@ -1280,8 +2365,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/RIMEDIE/Directorio_Contactos_CDMX.xlsx
+++ b/RIMEDIE/Directorio_Contactos_CDMX.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Adriana\Desktop\afchavez-019\RIMEDIE\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="120" yWindow="30" windowWidth="23715" windowHeight="10050"/>
   </bookViews>
@@ -11,12 +16,15 @@
     <sheet name="Centros Escolares" sheetId="2" r:id="rId2"/>
     <sheet name="Hoja3" sheetId="3" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Agentes Educativos'!$A$1:$Q$1</definedName>
+  </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="229">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="440" uniqueCount="230">
   <si>
     <t>Nombre de la Escuela</t>
   </si>
@@ -703,6 +711,9 @@
   </si>
   <si>
     <t>DIRECCIÓN GENERAL DEL SISTEMA DE ADMINISTRACIÓN DE LA NÓMINA EDUCATIVA FEDERALIZADA </t>
+  </si>
+  <si>
+    <t>Entidad</t>
   </si>
 </sst>
 </file>
@@ -892,7 +903,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -938,6 +949,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -948,6 +962,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -996,7 +1013,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1031,7 +1048,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1240,1121 +1257,1276 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P51"/>
+  <dimension ref="A1:Q51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
-      <selection activeCell="D57" sqref="D57"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="32.85546875" style="2" customWidth="1"/>
-    <col min="2" max="2" width="24" style="2" customWidth="1"/>
-    <col min="3" max="3" width="32.42578125" style="10" customWidth="1"/>
-    <col min="4" max="4" width="37.140625" style="16" customWidth="1"/>
-    <col min="5" max="5" width="19" style="13" customWidth="1"/>
-    <col min="6" max="6" width="42" style="2" customWidth="1"/>
-    <col min="7" max="7" width="53.85546875" style="2" customWidth="1"/>
+    <col min="1" max="1" width="13.7109375" style="17" customWidth="1"/>
+    <col min="2" max="2" width="32.85546875" style="13" customWidth="1"/>
+    <col min="3" max="3" width="24" style="2" customWidth="1"/>
+    <col min="4" max="4" width="32.42578125" style="10" customWidth="1"/>
+    <col min="5" max="5" width="37.140625" style="16" customWidth="1"/>
+    <col min="6" max="6" width="19" style="13" customWidth="1"/>
+    <col min="7" max="7" width="42" style="2" customWidth="1"/>
+    <col min="8" max="8" width="53.85546875" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="55.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:17" ht="55.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="14" t="s">
+        <v>229</v>
+      </c>
+      <c r="B1" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="C1" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="D1" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="E1" s="14" t="s">
         <v>227</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="F1" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="G1" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="H1" s="6" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="45" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+    <row r="2" spans="1:17" ht="45" x14ac:dyDescent="0.25">
+      <c r="A2" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D2" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="D2" s="15"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="5" t="s">
+      <c r="E2" s="15"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="H2" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="O2">
-        <v>5</v>
-      </c>
-      <c r="P2" s="1" t="s">
+      <c r="P2">
+        <v>5</v>
+      </c>
+      <c r="Q2" s="1" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="45" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+    <row r="3" spans="1:17" ht="45" x14ac:dyDescent="0.25">
+      <c r="A3" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D3" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="D3" s="15"/>
-      <c r="E3" s="13" t="s">
+      <c r="E3" s="15"/>
+      <c r="F3" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="G3" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="H3" s="2" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="4" spans="1:16" ht="45" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+    <row r="4" spans="1:17" ht="45" x14ac:dyDescent="0.25">
+      <c r="A4" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C4" s="10" t="s">
+      <c r="C4" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D4" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="D4" s="15"/>
-      <c r="E4" s="13">
+      <c r="E4" s="15"/>
+      <c r="F4" s="13">
         <v>51340770</v>
       </c>
-      <c r="G4" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" ht="45" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+      <c r="H4" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" ht="45" x14ac:dyDescent="0.25">
+      <c r="A5" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C5" s="10" t="s">
+      <c r="C5" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D5" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="D5" s="15"/>
-      <c r="E5" s="13" t="s">
+      <c r="E5" s="15"/>
+      <c r="F5" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="G5" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="G5" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" ht="45" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
+      <c r="H5" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" ht="45" x14ac:dyDescent="0.25">
+      <c r="A6" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C6" s="10" t="s">
+      <c r="C6" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D6" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="D6" s="15"/>
-      <c r="E6" s="13" t="s">
+      <c r="E6" s="15"/>
+      <c r="F6" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="G6" s="2" t="s">
+      <c r="H6" s="2" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="7" spans="1:16" ht="45" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
+    <row r="7" spans="1:17" ht="45" x14ac:dyDescent="0.25">
+      <c r="A7" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C7" s="10" t="s">
+      <c r="C7" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D7" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="D7" s="15"/>
-      <c r="E7" s="13" t="s">
+      <c r="E7" s="15"/>
+      <c r="F7" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="G7" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="G7" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" ht="45" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
+      <c r="H7" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" ht="45" x14ac:dyDescent="0.25">
+      <c r="A8" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C8" s="10" t="s">
+      <c r="C8" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D8" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="D8" s="15"/>
-      <c r="E8" s="13" t="s">
+      <c r="E8" s="15"/>
+      <c r="F8" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="F8" s="3" t="s">
+      <c r="G8" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="G8" s="2" t="s">
+      <c r="H8" s="2" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="9" spans="1:16" ht="45" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
+    <row r="9" spans="1:17" ht="45" x14ac:dyDescent="0.25">
+      <c r="A9" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C9" s="10" t="s">
+      <c r="C9" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D9" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="D9" s="15"/>
-      <c r="E9" s="13" t="s">
+      <c r="E9" s="15"/>
+      <c r="F9" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="F9" s="3" t="s">
+      <c r="G9" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="G9" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" ht="45" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
+      <c r="H9" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" ht="45" x14ac:dyDescent="0.25">
+      <c r="A10" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C10" s="10" t="s">
+      <c r="C10" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D10" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="D10" s="15"/>
-      <c r="E10" s="13" t="s">
+      <c r="E10" s="15"/>
+      <c r="F10" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="F10" s="3" t="s">
+      <c r="G10" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="G10" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" ht="45" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
+      <c r="H10" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" ht="45" x14ac:dyDescent="0.25">
+      <c r="A11" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="B11" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C11" s="10" t="s">
+      <c r="C11" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D11" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="D11" s="15"/>
-      <c r="E11" s="13" t="s">
+      <c r="E11" s="15"/>
+      <c r="F11" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="F11" s="3" t="s">
+      <c r="G11" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="G11" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" ht="45" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
+      <c r="H11" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" ht="45" x14ac:dyDescent="0.25">
+      <c r="A12" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="B12" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="B12" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C12" s="10" t="s">
+      <c r="C12" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D12" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="D12" s="15"/>
-      <c r="E12" s="13" t="s">
+      <c r="E12" s="15"/>
+      <c r="F12" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="F12" s="3" t="s">
+      <c r="G12" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="G12" s="2" t="s">
+      <c r="H12" s="2" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="13" spans="1:16" ht="45" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
+    <row r="13" spans="1:17" ht="45" x14ac:dyDescent="0.25">
+      <c r="A13" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="B13" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C13" s="10" t="s">
+      <c r="C13" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D13" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="D13" s="15"/>
-      <c r="E13" s="13" t="s">
+      <c r="E13" s="15"/>
+      <c r="F13" s="13" t="s">
         <v>87</v>
       </c>
-      <c r="F13" s="3" t="s">
+      <c r="G13" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="G13" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" ht="45" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
+      <c r="H13" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" ht="45" x14ac:dyDescent="0.25">
+      <c r="A14" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="B14" s="13" t="s">
         <v>89</v>
       </c>
-      <c r="B14" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C14" s="10" t="s">
+      <c r="C14" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D14" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="D14" s="15"/>
-      <c r="E14" s="13" t="s">
+      <c r="E14" s="15"/>
+      <c r="F14" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="F14" s="3" t="s">
+      <c r="G14" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="G14" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" ht="45" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
+      <c r="H14" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" ht="45" x14ac:dyDescent="0.25">
+      <c r="A15" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="B15" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="B15" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C15" s="10" t="s">
+      <c r="C15" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D15" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="D15" s="15"/>
-      <c r="E15" s="13" t="s">
+      <c r="E15" s="15"/>
+      <c r="F15" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="F15" s="3" t="s">
+      <c r="G15" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="G15" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" ht="45" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
+      <c r="H15" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" ht="45" x14ac:dyDescent="0.25">
+      <c r="A16" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="B16" s="13" t="s">
         <v>96</v>
       </c>
-      <c r="B16" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C16" s="10" t="s">
+      <c r="C16" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D16" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="D16" s="15"/>
-      <c r="E16" s="13" t="s">
+      <c r="E16" s="15"/>
+      <c r="F16" s="13" t="s">
         <v>98</v>
       </c>
-      <c r="G16" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
+      <c r="H16" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A17" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="B17" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="B17" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C17" s="10" t="s">
+      <c r="C17" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D17" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="D17" s="15"/>
-      <c r="E17" s="13" t="s">
+      <c r="E17" s="15"/>
+      <c r="F17" s="13" t="s">
         <v>101</v>
       </c>
-      <c r="F17" s="3" t="s">
+      <c r="G17" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="G17" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
+      <c r="H17" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A18" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="B18" s="13" t="s">
         <v>103</v>
       </c>
-      <c r="B18" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C18" s="10" t="s">
+      <c r="C18" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D18" s="10" t="s">
         <v>104</v>
       </c>
-      <c r="D18" s="15"/>
-      <c r="E18" s="13" t="s">
+      <c r="E18" s="15"/>
+      <c r="F18" s="13" t="s">
         <v>105</v>
       </c>
-      <c r="F18" s="3" t="s">
+      <c r="G18" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="G18" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
+      <c r="H18" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A19" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="B19" s="13" t="s">
         <v>107</v>
       </c>
-      <c r="B19" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C19" s="10" t="s">
+      <c r="C19" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D19" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="D19" s="15"/>
-      <c r="E19" s="13" t="s">
+      <c r="E19" s="15"/>
+      <c r="F19" s="13" t="s">
         <v>109</v>
       </c>
-      <c r="F19" s="3" t="s">
+      <c r="G19" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="G19" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
+      <c r="H19" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A20" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="B20" s="13" t="s">
         <v>111</v>
       </c>
-      <c r="B20" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C20" s="10" t="s">
+      <c r="C20" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D20" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="D20" s="15"/>
-      <c r="E20" s="13" t="s">
+      <c r="E20" s="15"/>
+      <c r="F20" s="13" t="s">
         <v>113</v>
       </c>
-      <c r="F20" s="3" t="s">
+      <c r="G20" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="G20" s="2" t="s">
+      <c r="H20" s="2" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
+    <row r="21" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A21" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="B21" s="13" t="s">
         <v>115</v>
       </c>
-      <c r="B21" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C21" s="10" t="s">
+      <c r="C21" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D21" s="10" t="s">
         <v>116</v>
       </c>
-      <c r="D21" s="15"/>
-      <c r="E21" s="13" t="s">
+      <c r="E21" s="15"/>
+      <c r="F21" s="13" t="s">
         <v>117</v>
       </c>
-      <c r="F21" s="3" t="s">
+      <c r="G21" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="G21" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
+      <c r="H21" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A22" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="B22" s="13" t="s">
         <v>122</v>
       </c>
-      <c r="B22" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C22" s="10" t="s">
+      <c r="C22" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D22" s="10" t="s">
         <v>123</v>
       </c>
-      <c r="D22" s="15"/>
-      <c r="E22" s="13" t="s">
+      <c r="E22" s="15"/>
+      <c r="F22" s="13" t="s">
         <v>124</v>
       </c>
-      <c r="F22" s="3" t="s">
+      <c r="G22" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="G22" s="2" t="s">
+      <c r="H22" s="2" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A23" s="2" t="s">
+    <row r="23" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A23" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="B23" s="13" t="s">
         <v>126</v>
       </c>
-      <c r="B23" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C23" s="10" t="s">
+      <c r="C23" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D23" s="10" t="s">
         <v>127</v>
       </c>
-      <c r="D23" s="15"/>
-      <c r="G23" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A24" s="2" t="s">
+      <c r="E23" s="15"/>
+      <c r="H23" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A24" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="B24" s="13" t="s">
         <v>128</v>
       </c>
-      <c r="B24" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C24" s="10" t="s">
+      <c r="C24" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D24" s="10" t="s">
         <v>129</v>
       </c>
-      <c r="D24" s="15"/>
-      <c r="E24" s="13" t="s">
+      <c r="E24" s="15"/>
+      <c r="F24" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="F24" s="3" t="s">
+      <c r="G24" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="G24" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A25" s="2" t="s">
+      <c r="H24" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A25" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="B25" s="13" t="s">
         <v>131</v>
       </c>
-      <c r="B25" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C25" s="10" t="s">
+      <c r="C25" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D25" s="10" t="s">
         <v>132</v>
       </c>
-      <c r="D25" s="15"/>
-      <c r="E25" s="13" t="s">
+      <c r="E25" s="15"/>
+      <c r="F25" s="13" t="s">
         <v>133</v>
       </c>
-      <c r="F25" s="3" t="s">
+      <c r="G25" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="G25" s="2" t="s">
+      <c r="H25" s="2" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A26" s="2" t="s">
+    <row r="26" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A26" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="B26" s="13" t="s">
         <v>135</v>
       </c>
-      <c r="B26" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C26" s="10" t="s">
+      <c r="C26" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D26" s="10" t="s">
         <v>136</v>
       </c>
-      <c r="D26" s="15"/>
-      <c r="E26" s="13" t="s">
+      <c r="E26" s="15"/>
+      <c r="F26" s="13" t="s">
         <v>137</v>
       </c>
-      <c r="F26" s="3" t="s">
+      <c r="G26" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="G26" s="2" t="s">
+      <c r="H26" s="2" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A27" s="2" t="s">
+    <row r="27" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A27" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="B27" s="13" t="s">
         <v>139</v>
       </c>
-      <c r="B27" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C27" s="10" t="s">
+      <c r="C27" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D27" s="10" t="s">
         <v>140</v>
       </c>
-      <c r="D27" s="15"/>
-      <c r="E27" s="13" t="s">
+      <c r="E27" s="15"/>
+      <c r="F27" s="13" t="s">
         <v>141</v>
       </c>
-      <c r="F27" s="3" t="s">
+      <c r="G27" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="G27" s="2" t="s">
+      <c r="H27" s="2" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A28" s="2" t="s">
+    <row r="28" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A28" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="B28" s="13" t="s">
         <v>143</v>
       </c>
-      <c r="B28" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C28" s="10" t="s">
+      <c r="C28" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D28" s="10" t="s">
         <v>144</v>
       </c>
-      <c r="D28" s="15"/>
-      <c r="E28" s="13" t="s">
+      <c r="E28" s="15"/>
+      <c r="F28" s="13" t="s">
         <v>145</v>
       </c>
-      <c r="F28" s="3" t="s">
+      <c r="G28" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="G28" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A29" s="2" t="s">
+      <c r="H28" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A29" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="B29" s="13" t="s">
         <v>147</v>
       </c>
-      <c r="B29" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C29" s="10" t="s">
+      <c r="C29" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D29" s="10" t="s">
         <v>148</v>
       </c>
-      <c r="D29" s="15"/>
-      <c r="E29" s="13" t="s">
+      <c r="E29" s="15"/>
+      <c r="F29" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="F29" s="3" t="s">
+      <c r="G29" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="G29" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A30" s="2" t="s">
+      <c r="H29" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A30" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="B30" s="13" t="s">
         <v>150</v>
       </c>
-      <c r="B30" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C30" s="10" t="s">
+      <c r="C30" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D30" s="10" t="s">
         <v>151</v>
       </c>
-      <c r="D30" s="15"/>
-      <c r="E30" s="13" t="s">
+      <c r="E30" s="15"/>
+      <c r="F30" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="F30" s="3" t="s">
+      <c r="G30" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="G30" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A31" s="2" t="s">
+      <c r="H30" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A31" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="B31" s="13" t="s">
         <v>153</v>
       </c>
-      <c r="B31" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C31" s="10" t="s">
+      <c r="C31" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D31" s="10" t="s">
         <v>154</v>
       </c>
-      <c r="D31" s="15"/>
-      <c r="E31" s="13" t="s">
+      <c r="E31" s="15"/>
+      <c r="F31" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="F31" s="3" t="s">
+      <c r="G31" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="G31" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A32" s="2" t="s">
+      <c r="H31" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A32" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="B32" s="13" t="s">
         <v>156</v>
       </c>
-      <c r="B32" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C32" s="10" t="s">
+      <c r="C32" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D32" s="10" t="s">
         <v>157</v>
       </c>
-      <c r="D32" s="15"/>
-      <c r="E32" s="13" t="s">
+      <c r="E32" s="15"/>
+      <c r="F32" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="F32" s="3" t="s">
+      <c r="G32" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="G32" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A33" s="2" t="s">
+      <c r="H32" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A33" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="B33" s="13" t="s">
         <v>159</v>
       </c>
-      <c r="B33" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C33" s="10" t="s">
+      <c r="C33" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D33" s="10" t="s">
         <v>160</v>
       </c>
-      <c r="D33" s="15"/>
-      <c r="E33" s="13" t="s">
+      <c r="E33" s="15"/>
+      <c r="F33" s="13" t="s">
         <v>161</v>
       </c>
-      <c r="F33" s="3" t="s">
+      <c r="G33" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="G33" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A34" s="2" t="s">
+      <c r="H33" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A34" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="B34" s="13" t="s">
         <v>163</v>
       </c>
-      <c r="B34" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C34" s="10" t="s">
+      <c r="C34" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D34" s="10" t="s">
         <v>164</v>
       </c>
-      <c r="D34" s="15"/>
-      <c r="E34" s="13" t="s">
+      <c r="E34" s="15"/>
+      <c r="F34" s="13" t="s">
         <v>165</v>
       </c>
-      <c r="F34" s="3" t="s">
+      <c r="G34" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="G34" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A35" s="2" t="s">
+      <c r="H34" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A35" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="B35" s="13" t="s">
         <v>167</v>
       </c>
-      <c r="B35" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C35" s="10" t="s">
+      <c r="C35" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D35" s="10" t="s">
         <v>168</v>
       </c>
-      <c r="D35" s="15"/>
-      <c r="E35" s="13" t="s">
+      <c r="E35" s="15"/>
+      <c r="F35" s="13" t="s">
         <v>169</v>
       </c>
-      <c r="F35" s="3" t="s">
+      <c r="G35" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="G35" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A36" s="2" t="s">
+      <c r="H35" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A36" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="B36" s="13" t="s">
         <v>171</v>
       </c>
-      <c r="B36" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C36" s="10" t="s">
+      <c r="C36" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D36" s="10" t="s">
         <v>172</v>
       </c>
-      <c r="D36" s="15"/>
-      <c r="E36" s="13" t="s">
+      <c r="E36" s="15"/>
+      <c r="F36" s="13" t="s">
         <v>173</v>
       </c>
-      <c r="F36" s="3" t="s">
+      <c r="G36" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="G36" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A37" s="2" t="s">
+      <c r="H36" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A37" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="B37" s="13" t="s">
         <v>175</v>
       </c>
-      <c r="B37" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C37" s="10" t="s">
+      <c r="C37" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D37" s="10" t="s">
         <v>176</v>
       </c>
-      <c r="D37" s="15"/>
-      <c r="E37" s="13" t="s">
+      <c r="E37" s="15"/>
+      <c r="F37" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="F37" s="3" t="s">
+      <c r="G37" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="G37" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A38" s="2" t="s">
+      <c r="H37" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A38" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="B38" s="13" t="s">
         <v>178</v>
       </c>
-      <c r="B38" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C38" s="10" t="s">
+      <c r="C38" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D38" s="10" t="s">
         <v>179</v>
       </c>
-      <c r="D38" s="15"/>
-      <c r="E38" s="13">
+      <c r="E38" s="15"/>
+      <c r="F38" s="13">
         <v>51340770</v>
       </c>
-      <c r="F38" s="3" t="s">
+      <c r="G38" s="3" t="s">
         <v>180</v>
       </c>
-      <c r="G38" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A39" s="2" t="s">
+      <c r="H38" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A39" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="B39" s="13" t="s">
         <v>181</v>
       </c>
-      <c r="B39" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C39" s="10" t="s">
+      <c r="C39" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D39" s="10" t="s">
         <v>182</v>
       </c>
-      <c r="D39" s="15"/>
-      <c r="E39" s="13">
+      <c r="E39" s="15"/>
+      <c r="F39" s="13">
         <v>51340770</v>
       </c>
-      <c r="F39" s="3" t="s">
+      <c r="G39" s="3" t="s">
         <v>183</v>
       </c>
-      <c r="G39" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A40" s="2" t="s">
+      <c r="H39" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A40" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="B40" s="13" t="s">
         <v>184</v>
       </c>
-      <c r="B40" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C40" s="10" t="s">
+      <c r="C40" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D40" s="10" t="s">
         <v>185</v>
       </c>
-      <c r="D40" s="15"/>
-      <c r="E40" s="13" t="s">
+      <c r="E40" s="15"/>
+      <c r="F40" s="13" t="s">
         <v>186</v>
       </c>
-      <c r="F40" s="3" t="s">
+      <c r="G40" s="3" t="s">
         <v>187</v>
       </c>
-      <c r="G40" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A41" s="2" t="s">
+      <c r="H40" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A41" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="B41" s="13" t="s">
         <v>188</v>
       </c>
-      <c r="B41" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C41" s="10" t="s">
+      <c r="C41" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D41" s="10" t="s">
         <v>189</v>
       </c>
-      <c r="D41" s="15"/>
-      <c r="E41" s="13" t="s">
+      <c r="E41" s="15"/>
+      <c r="F41" s="13" t="s">
         <v>190</v>
       </c>
-      <c r="F41" s="3" t="s">
+      <c r="G41" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="G41" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A42" s="2" t="s">
+      <c r="H41" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A42" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="B42" s="13" t="s">
         <v>192</v>
       </c>
-      <c r="B42" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C42" s="10" t="s">
+      <c r="C42" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D42" s="10" t="s">
         <v>193</v>
       </c>
-      <c r="D42" s="15"/>
-      <c r="E42" s="13" t="s">
+      <c r="E42" s="15"/>
+      <c r="F42" s="13" t="s">
         <v>194</v>
       </c>
-      <c r="F42" s="3" t="s">
+      <c r="G42" s="3" t="s">
         <v>195</v>
       </c>
-      <c r="G42" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A43" s="2" t="s">
+      <c r="H42" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A43" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="B43" s="13" t="s">
         <v>196</v>
       </c>
-      <c r="B43" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C43" s="10" t="s">
+      <c r="C43" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D43" s="10" t="s">
         <v>197</v>
       </c>
-      <c r="D43" s="15"/>
-      <c r="E43" s="13" t="s">
+      <c r="E43" s="15"/>
+      <c r="F43" s="13" t="s">
         <v>198</v>
       </c>
-      <c r="G43" s="2" t="s">
+      <c r="H43" s="2" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="44" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A44" s="2" t="s">
+    <row r="44" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A44" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="B44" s="13" t="s">
         <v>199</v>
       </c>
-      <c r="B44" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C44" s="10" t="s">
+      <c r="C44" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D44" s="10" t="s">
         <v>200</v>
       </c>
-      <c r="D44" s="15"/>
-      <c r="E44" s="13" t="s">
+      <c r="E44" s="15"/>
+      <c r="F44" s="13" t="s">
         <v>105</v>
       </c>
-      <c r="F44" s="3" t="s">
+      <c r="G44" s="3" t="s">
         <v>201</v>
       </c>
-      <c r="G44" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A45" s="2" t="s">
+      <c r="H44" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A45" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="B45" s="13" t="s">
         <v>202</v>
       </c>
-      <c r="B45" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C45" s="10" t="s">
+      <c r="C45" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D45" s="10" t="s">
         <v>203</v>
       </c>
-      <c r="D45" s="15"/>
-      <c r="E45" s="13" t="s">
+      <c r="E45" s="15"/>
+      <c r="F45" s="13" t="s">
         <v>98</v>
       </c>
-      <c r="G45" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A46" s="2" t="s">
+      <c r="H45" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A46" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="B46" s="13" t="s">
         <v>205</v>
       </c>
-      <c r="B46" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C46" s="10" t="s">
+      <c r="C46" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D46" s="10" t="s">
         <v>204</v>
       </c>
-      <c r="D46" s="15"/>
-      <c r="E46" s="13" t="s">
+      <c r="E46" s="15"/>
+      <c r="F46" s="13" t="s">
         <v>206</v>
       </c>
-      <c r="G46" s="2" t="s">
+      <c r="H46" s="2" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="47" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A47" s="2" t="s">
+    <row r="47" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A47" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="B47" s="13" t="s">
         <v>207</v>
       </c>
-      <c r="B47" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C47" s="10" t="s">
+      <c r="C47" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D47" s="10" t="s">
         <v>208</v>
       </c>
-      <c r="D47" s="15"/>
-      <c r="E47" s="13" t="s">
+      <c r="E47" s="15"/>
+      <c r="F47" s="13" t="s">
         <v>209</v>
       </c>
-      <c r="F47" s="3" t="s">
+      <c r="G47" s="3" t="s">
         <v>210</v>
       </c>
-      <c r="G47" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A48" s="2" t="s">
+      <c r="H47" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A48" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="B48" s="13" t="s">
         <v>211</v>
       </c>
-      <c r="B48" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C48" s="10" t="s">
+      <c r="C48" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D48" s="10" t="s">
         <v>212</v>
       </c>
-      <c r="D48" s="15"/>
-      <c r="E48" s="13" t="s">
+      <c r="E48" s="15"/>
+      <c r="F48" s="13" t="s">
         <v>213</v>
       </c>
-      <c r="F48" s="3" t="s">
+      <c r="G48" s="3" t="s">
         <v>216</v>
       </c>
-      <c r="G48" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A49" s="2" t="s">
+      <c r="H48" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A49" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="B49" s="13" t="s">
         <v>214</v>
       </c>
-      <c r="B49" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C49" s="10" t="s">
+      <c r="C49" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D49" s="10" t="s">
         <v>215</v>
       </c>
-      <c r="D49" s="15"/>
-      <c r="E49" s="13" t="s">
+      <c r="E49" s="15"/>
+      <c r="F49" s="13" t="s">
         <v>105</v>
       </c>
-      <c r="F49" s="3" t="s">
+      <c r="G49" s="3" t="s">
         <v>217</v>
       </c>
-      <c r="G49" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A50" s="2" t="s">
+      <c r="H49" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A50" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="B50" s="13" t="s">
         <v>218</v>
       </c>
-      <c r="B50" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C50" s="10" t="s">
+      <c r="C50" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D50" s="10" t="s">
         <v>219</v>
       </c>
-      <c r="D50" s="15"/>
-      <c r="E50" s="13" t="s">
+      <c r="E50" s="15"/>
+      <c r="F50" s="13" t="s">
         <v>220</v>
       </c>
-      <c r="F50" s="3" t="s">
+      <c r="G50" s="3" t="s">
         <v>221</v>
       </c>
-      <c r="G50" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A51" s="2" t="s">
+      <c r="H50" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A51" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="B51" s="13" t="s">
         <v>225</v>
       </c>
-      <c r="B51" s="2" t="s">
+      <c r="C51" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="C51" s="10" t="s">
+      <c r="D51" s="10" t="s">
         <v>223</v>
       </c>
-      <c r="D51" s="15" t="s">
+      <c r="E51" s="15" t="s">
         <v>228</v>
       </c>
-      <c r="F51" s="3" t="s">
+      <c r="G51" s="3" t="s">
         <v>224</v>
       </c>
-      <c r="G51" s="2" t="s">
+      <c r="H51" s="2" t="s">
         <v>226</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:Q1"/>
   <hyperlinks>
-    <hyperlink ref="F2" r:id="rId1"/>
-    <hyperlink ref="F3" r:id="rId2"/>
-    <hyperlink ref="F5" r:id="rId3"/>
-    <hyperlink ref="F7" r:id="rId4"/>
-    <hyperlink ref="F8" r:id="rId5"/>
-    <hyperlink ref="F9" r:id="rId6"/>
-    <hyperlink ref="F10" r:id="rId7"/>
-    <hyperlink ref="F11" r:id="rId8"/>
-    <hyperlink ref="P2" r:id="rId9"/>
-    <hyperlink ref="F12" r:id="rId10"/>
-    <hyperlink ref="F13" r:id="rId11"/>
-    <hyperlink ref="F14" r:id="rId12"/>
-    <hyperlink ref="F15" r:id="rId13"/>
-    <hyperlink ref="F17" r:id="rId14"/>
-    <hyperlink ref="F18" r:id="rId15"/>
-    <hyperlink ref="F19" r:id="rId16"/>
-    <hyperlink ref="F20" r:id="rId17"/>
-    <hyperlink ref="F21" r:id="rId18"/>
-    <hyperlink ref="F22" r:id="rId19"/>
-    <hyperlink ref="F24" r:id="rId20"/>
-    <hyperlink ref="F25" r:id="rId21"/>
-    <hyperlink ref="F26" r:id="rId22"/>
-    <hyperlink ref="F27" r:id="rId23"/>
-    <hyperlink ref="F28" r:id="rId24"/>
-    <hyperlink ref="F29" r:id="rId25"/>
-    <hyperlink ref="F30" r:id="rId26"/>
-    <hyperlink ref="F31" r:id="rId27"/>
-    <hyperlink ref="F32" r:id="rId28"/>
-    <hyperlink ref="F33" r:id="rId29"/>
-    <hyperlink ref="F34" r:id="rId30"/>
-    <hyperlink ref="F35" r:id="rId31"/>
-    <hyperlink ref="F36" r:id="rId32"/>
-    <hyperlink ref="F37" r:id="rId33"/>
-    <hyperlink ref="F38" r:id="rId34"/>
-    <hyperlink ref="F39" r:id="rId35"/>
-    <hyperlink ref="F40" r:id="rId36"/>
-    <hyperlink ref="F41" r:id="rId37"/>
-    <hyperlink ref="F42" r:id="rId38"/>
-    <hyperlink ref="F44" r:id="rId39"/>
-    <hyperlink ref="F47" r:id="rId40"/>
-    <hyperlink ref="F48" r:id="rId41"/>
-    <hyperlink ref="F49" r:id="rId42"/>
-    <hyperlink ref="F50" r:id="rId43"/>
-    <hyperlink ref="F51" r:id="rId44"/>
+    <hyperlink ref="G2" r:id="rId1"/>
+    <hyperlink ref="G3" r:id="rId2"/>
+    <hyperlink ref="G5" r:id="rId3"/>
+    <hyperlink ref="G7" r:id="rId4"/>
+    <hyperlink ref="G8" r:id="rId5"/>
+    <hyperlink ref="G9" r:id="rId6"/>
+    <hyperlink ref="G10" r:id="rId7"/>
+    <hyperlink ref="G11" r:id="rId8"/>
+    <hyperlink ref="Q2" r:id="rId9"/>
+    <hyperlink ref="G12" r:id="rId10"/>
+    <hyperlink ref="G13" r:id="rId11"/>
+    <hyperlink ref="G14" r:id="rId12"/>
+    <hyperlink ref="G15" r:id="rId13"/>
+    <hyperlink ref="G17" r:id="rId14"/>
+    <hyperlink ref="G18" r:id="rId15"/>
+    <hyperlink ref="G19" r:id="rId16"/>
+    <hyperlink ref="G20" r:id="rId17"/>
+    <hyperlink ref="G21" r:id="rId18"/>
+    <hyperlink ref="G22" r:id="rId19"/>
+    <hyperlink ref="G24" r:id="rId20"/>
+    <hyperlink ref="G25" r:id="rId21"/>
+    <hyperlink ref="G26" r:id="rId22"/>
+    <hyperlink ref="G27" r:id="rId23"/>
+    <hyperlink ref="G28" r:id="rId24"/>
+    <hyperlink ref="G29" r:id="rId25"/>
+    <hyperlink ref="G30" r:id="rId26"/>
+    <hyperlink ref="G31" r:id="rId27"/>
+    <hyperlink ref="G32" r:id="rId28"/>
+    <hyperlink ref="G33" r:id="rId29"/>
+    <hyperlink ref="G34" r:id="rId30"/>
+    <hyperlink ref="G35" r:id="rId31"/>
+    <hyperlink ref="G36" r:id="rId32"/>
+    <hyperlink ref="G37" r:id="rId33"/>
+    <hyperlink ref="G38" r:id="rId34"/>
+    <hyperlink ref="G39" r:id="rId35"/>
+    <hyperlink ref="G40" r:id="rId36"/>
+    <hyperlink ref="G41" r:id="rId37"/>
+    <hyperlink ref="G42" r:id="rId38"/>
+    <hyperlink ref="G44" r:id="rId39"/>
+    <hyperlink ref="G47" r:id="rId40"/>
+    <hyperlink ref="G48" r:id="rId41"/>
+    <hyperlink ref="G49" r:id="rId42"/>
+    <hyperlink ref="G50" r:id="rId43"/>
+    <hyperlink ref="G51" r:id="rId44"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId45"/>
@@ -2366,14 +2538,14 @@
   <dimension ref="A1:K15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.7109375" style="2" customWidth="1"/>
-    <col min="2" max="2" width="11.42578125" style="2"/>
-    <col min="3" max="3" width="14.7109375" style="2" customWidth="1"/>
+    <col min="1" max="1" width="11.140625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="12.85546875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" style="2" customWidth="1"/>
     <col min="4" max="4" width="36" style="2" customWidth="1"/>
     <col min="5" max="5" width="19.140625" style="2" customWidth="1"/>
     <col min="6" max="6" width="38.85546875" style="2" customWidth="1"/>
@@ -2552,7 +2724,7 @@
         <v>55611650</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>5</v>
       </c>
@@ -2713,7 +2885,7 @@
         <v>53590617</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>5</v>
       </c>

--- a/RIMEDIE/Directorio_Contactos_CDMX.xlsx
+++ b/RIMEDIE/Directorio_Contactos_CDMX.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Adriana\Desktop\afchavez-019\RIMEDIE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alejandro\Desktop\afchavez19\RIMEDIE\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -17,14 +17,14 @@
     <sheet name="Hoja3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Agentes Educativos'!$A$1:$Q$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Agentes Educativos'!$A$1:$S$1</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="440" uniqueCount="230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="441" uniqueCount="231">
   <si>
     <t>Nombre de la Escuela</t>
   </si>
@@ -714,6 +714,9 @@
   </si>
   <si>
     <t>Entidad</t>
+  </si>
+  <si>
+    <t>División</t>
   </si>
 </sst>
 </file>
@@ -903,7 +906,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -950,6 +953,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1257,1276 +1269,1284 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q51"/>
+  <dimension ref="A1:S51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.7109375" style="17" customWidth="1"/>
-    <col min="2" max="2" width="32.85546875" style="13" customWidth="1"/>
-    <col min="3" max="3" width="24" style="2" customWidth="1"/>
-    <col min="4" max="4" width="32.42578125" style="10" customWidth="1"/>
-    <col min="5" max="5" width="37.140625" style="16" customWidth="1"/>
-    <col min="6" max="6" width="19" style="13" customWidth="1"/>
-    <col min="7" max="7" width="42" style="2" customWidth="1"/>
-    <col min="8" max="8" width="53.85546875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="20.28515625" style="20" customWidth="1"/>
+    <col min="3" max="3" width="23.28515625" style="20" customWidth="1"/>
+    <col min="4" max="4" width="32.85546875" style="13" customWidth="1"/>
+    <col min="5" max="5" width="24" style="2" customWidth="1"/>
+    <col min="6" max="6" width="32.42578125" style="10" customWidth="1"/>
+    <col min="7" max="7" width="37.140625" style="16" customWidth="1"/>
+    <col min="8" max="8" width="19" style="13" customWidth="1"/>
+    <col min="9" max="9" width="42" style="2" customWidth="1"/>
+    <col min="10" max="10" width="53.85546875" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="55.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" ht="55.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="14" t="s">
         <v>229</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="18"/>
+      <c r="C1" s="18" t="s">
+        <v>230</v>
+      </c>
+      <c r="D1" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="E1" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="F1" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="E1" s="14" t="s">
+      <c r="G1" s="14" t="s">
         <v>227</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="H1" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="I1" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="J1" s="6" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="45" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="C2" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="D2" s="9" t="s">
+      <c r="E2" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E2" s="15"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="15"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="J2" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="P2">
-        <v>5</v>
-      </c>
-      <c r="Q2" s="1" t="s">
+      <c r="R2">
+        <v>5</v>
+      </c>
+      <c r="S2" s="1" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="45" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="D3" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="D3" s="10" t="s">
+      <c r="E3" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="E3" s="15"/>
-      <c r="F3" s="13" t="s">
+      <c r="G3" s="15"/>
+      <c r="H3" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="I3" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="J3" s="2" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="4" spans="1:17" ht="45" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="13" t="s">
+      <c r="D4" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="D4" s="10" t="s">
+      <c r="E4" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="E4" s="15"/>
-      <c r="F4" s="13">
+      <c r="G4" s="15"/>
+      <c r="H4" s="13">
         <v>51340770</v>
       </c>
-      <c r="H4" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" ht="45" x14ac:dyDescent="0.25">
+      <c r="J4" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="13" t="s">
+      <c r="D5" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="D5" s="10" t="s">
+      <c r="E5" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="E5" s="15"/>
-      <c r="F5" s="13" t="s">
+      <c r="G5" s="15"/>
+      <c r="H5" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="G5" s="3" t="s">
+      <c r="I5" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="H5" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" ht="45" x14ac:dyDescent="0.25">
+      <c r="J5" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="13" t="s">
+      <c r="D6" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="D6" s="10" t="s">
+      <c r="E6" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="E6" s="15"/>
-      <c r="F6" s="13" t="s">
+      <c r="G6" s="15"/>
+      <c r="H6" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="H6" s="2" t="s">
+      <c r="J6" s="2" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="7" spans="1:17" ht="45" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="13" t="s">
+      <c r="D7" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="D7" s="10" t="s">
+      <c r="E7" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="E7" s="15"/>
-      <c r="F7" s="13" t="s">
+      <c r="G7" s="15"/>
+      <c r="H7" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="G7" s="3" t="s">
+      <c r="I7" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="H7" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" ht="45" x14ac:dyDescent="0.25">
+      <c r="J7" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="13" t="s">
+      <c r="D8" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="C8" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="D8" s="10" t="s">
+      <c r="E8" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="E8" s="15"/>
-      <c r="F8" s="13" t="s">
+      <c r="G8" s="15"/>
+      <c r="H8" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="G8" s="3" t="s">
+      <c r="I8" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="H8" s="2" t="s">
+      <c r="J8" s="2" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="9" spans="1:17" ht="45" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="13" t="s">
+      <c r="D9" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="C9" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="D9" s="10" t="s">
+      <c r="E9" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="E9" s="15"/>
-      <c r="F9" s="13" t="s">
+      <c r="G9" s="15"/>
+      <c r="H9" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="G9" s="3" t="s">
+      <c r="I9" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="H9" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" ht="45" x14ac:dyDescent="0.25">
+      <c r="J9" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A10" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="13" t="s">
+      <c r="D10" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="C10" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="D10" s="10" t="s">
+      <c r="E10" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="E10" s="15"/>
-      <c r="F10" s="13" t="s">
+      <c r="G10" s="15"/>
+      <c r="H10" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="G10" s="3" t="s">
+      <c r="I10" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="H10" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" ht="45" x14ac:dyDescent="0.25">
+      <c r="J10" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A11" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="13" t="s">
+      <c r="D11" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="C11" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="D11" s="10" t="s">
+      <c r="E11" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="E11" s="15"/>
-      <c r="F11" s="13" t="s">
+      <c r="G11" s="15"/>
+      <c r="H11" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="G11" s="3" t="s">
+      <c r="I11" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="H11" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" ht="45" x14ac:dyDescent="0.25">
+      <c r="J11" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A12" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="B12" s="13" t="s">
+      <c r="D12" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="C12" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="D12" s="10" t="s">
+      <c r="E12" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="E12" s="15"/>
-      <c r="F12" s="13" t="s">
+      <c r="G12" s="15"/>
+      <c r="H12" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="G12" s="3" t="s">
+      <c r="I12" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="H12" s="2" t="s">
+      <c r="J12" s="2" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="13" spans="1:17" ht="45" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A13" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="B13" s="13" t="s">
+      <c r="D13" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="C13" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="D13" s="10" t="s">
+      <c r="E13" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="E13" s="15"/>
-      <c r="F13" s="13" t="s">
+      <c r="G13" s="15"/>
+      <c r="H13" s="13" t="s">
         <v>87</v>
       </c>
-      <c r="G13" s="3" t="s">
+      <c r="I13" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="H13" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17" ht="45" x14ac:dyDescent="0.25">
+      <c r="J13" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A14" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="B14" s="13" t="s">
+      <c r="D14" s="13" t="s">
         <v>89</v>
       </c>
-      <c r="C14" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="D14" s="10" t="s">
+      <c r="E14" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="E14" s="15"/>
-      <c r="F14" s="13" t="s">
+      <c r="G14" s="15"/>
+      <c r="H14" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="G14" s="3" t="s">
+      <c r="I14" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="H14" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" ht="45" x14ac:dyDescent="0.25">
+      <c r="J14" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A15" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="B15" s="13" t="s">
+      <c r="D15" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="C15" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="D15" s="10" t="s">
+      <c r="E15" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="E15" s="15"/>
-      <c r="F15" s="13" t="s">
+      <c r="G15" s="15"/>
+      <c r="H15" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="G15" s="3" t="s">
+      <c r="I15" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="H15" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" ht="45" x14ac:dyDescent="0.25">
+      <c r="J15" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A16" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="B16" s="13" t="s">
+      <c r="D16" s="13" t="s">
         <v>96</v>
       </c>
-      <c r="C16" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="D16" s="10" t="s">
+      <c r="E16" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="E16" s="15"/>
-      <c r="F16" s="13" t="s">
+      <c r="G16" s="15"/>
+      <c r="H16" s="13" t="s">
         <v>98</v>
       </c>
-      <c r="H16" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="J16" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A17" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="B17" s="13" t="s">
+      <c r="D17" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="C17" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="D17" s="10" t="s">
+      <c r="E17" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="E17" s="15"/>
-      <c r="F17" s="13" t="s">
+      <c r="G17" s="15"/>
+      <c r="H17" s="13" t="s">
         <v>101</v>
       </c>
-      <c r="G17" s="3" t="s">
+      <c r="I17" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="H17" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="J17" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A18" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="B18" s="13" t="s">
+      <c r="D18" s="13" t="s">
         <v>103</v>
       </c>
-      <c r="C18" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="D18" s="10" t="s">
+      <c r="E18" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" s="10" t="s">
         <v>104</v>
       </c>
-      <c r="E18" s="15"/>
-      <c r="F18" s="13" t="s">
+      <c r="G18" s="15"/>
+      <c r="H18" s="13" t="s">
         <v>105</v>
       </c>
-      <c r="G18" s="3" t="s">
+      <c r="I18" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="H18" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="J18" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A19" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="B19" s="13" t="s">
+      <c r="D19" s="13" t="s">
         <v>107</v>
       </c>
-      <c r="C19" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="D19" s="10" t="s">
+      <c r="E19" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="E19" s="15"/>
-      <c r="F19" s="13" t="s">
+      <c r="G19" s="15"/>
+      <c r="H19" s="13" t="s">
         <v>109</v>
       </c>
-      <c r="G19" s="3" t="s">
+      <c r="I19" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="H19" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="J19" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A20" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="B20" s="13" t="s">
+      <c r="D20" s="13" t="s">
         <v>111</v>
       </c>
-      <c r="C20" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="D20" s="10" t="s">
+      <c r="E20" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="E20" s="15"/>
-      <c r="F20" s="13" t="s">
+      <c r="G20" s="15"/>
+      <c r="H20" s="13" t="s">
         <v>113</v>
       </c>
-      <c r="G20" s="3" t="s">
+      <c r="I20" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="H20" s="2" t="s">
+      <c r="J20" s="2" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A21" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="B21" s="13" t="s">
+      <c r="D21" s="13" t="s">
         <v>115</v>
       </c>
-      <c r="C21" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="D21" s="10" t="s">
+      <c r="E21" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" s="10" t="s">
         <v>116</v>
       </c>
-      <c r="E21" s="15"/>
-      <c r="F21" s="13" t="s">
+      <c r="G21" s="15"/>
+      <c r="H21" s="13" t="s">
         <v>117</v>
       </c>
-      <c r="G21" s="3" t="s">
+      <c r="I21" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="H21" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="J21" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A22" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="B22" s="13" t="s">
+      <c r="D22" s="13" t="s">
         <v>122</v>
       </c>
-      <c r="C22" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="D22" s="10" t="s">
+      <c r="E22" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" s="10" t="s">
         <v>123</v>
       </c>
-      <c r="E22" s="15"/>
-      <c r="F22" s="13" t="s">
+      <c r="G22" s="15"/>
+      <c r="H22" s="13" t="s">
         <v>124</v>
       </c>
-      <c r="G22" s="3" t="s">
+      <c r="I22" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="H22" s="2" t="s">
+      <c r="J22" s="2" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A23" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="B23" s="13" t="s">
+      <c r="D23" s="13" t="s">
         <v>126</v>
       </c>
-      <c r="C23" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="D23" s="10" t="s">
+      <c r="E23" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" s="10" t="s">
         <v>127</v>
       </c>
-      <c r="E23" s="15"/>
-      <c r="H23" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="G23" s="15"/>
+      <c r="J23" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A24" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="B24" s="13" t="s">
+      <c r="D24" s="13" t="s">
         <v>128</v>
       </c>
-      <c r="C24" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="D24" s="10" t="s">
+      <c r="E24" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" s="10" t="s">
         <v>129</v>
       </c>
-      <c r="E24" s="15"/>
-      <c r="F24" s="13" t="s">
+      <c r="G24" s="15"/>
+      <c r="H24" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="G24" s="3" t="s">
+      <c r="I24" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="H24" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="J24" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A25" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="B25" s="13" t="s">
+      <c r="D25" s="13" t="s">
         <v>131</v>
       </c>
-      <c r="C25" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="D25" s="10" t="s">
+      <c r="E25" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" s="10" t="s">
         <v>132</v>
       </c>
-      <c r="E25" s="15"/>
-      <c r="F25" s="13" t="s">
+      <c r="G25" s="15"/>
+      <c r="H25" s="13" t="s">
         <v>133</v>
       </c>
-      <c r="G25" s="3" t="s">
+      <c r="I25" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="H25" s="2" t="s">
+      <c r="J25" s="2" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A26" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="B26" s="13" t="s">
+      <c r="D26" s="13" t="s">
         <v>135</v>
       </c>
-      <c r="C26" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="D26" s="10" t="s">
+      <c r="E26" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" s="10" t="s">
         <v>136</v>
       </c>
-      <c r="E26" s="15"/>
-      <c r="F26" s="13" t="s">
+      <c r="G26" s="15"/>
+      <c r="H26" s="13" t="s">
         <v>137</v>
       </c>
-      <c r="G26" s="3" t="s">
+      <c r="I26" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="H26" s="2" t="s">
+      <c r="J26" s="2" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A27" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="B27" s="13" t="s">
+      <c r="D27" s="13" t="s">
         <v>139</v>
       </c>
-      <c r="C27" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="D27" s="10" t="s">
+      <c r="E27" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" s="10" t="s">
         <v>140</v>
       </c>
-      <c r="E27" s="15"/>
-      <c r="F27" s="13" t="s">
+      <c r="G27" s="15"/>
+      <c r="H27" s="13" t="s">
         <v>141</v>
       </c>
-      <c r="G27" s="3" t="s">
+      <c r="I27" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="H27" s="2" t="s">
+      <c r="J27" s="2" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A28" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="B28" s="13" t="s">
+      <c r="D28" s="13" t="s">
         <v>143</v>
       </c>
-      <c r="C28" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="D28" s="10" t="s">
+      <c r="E28" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F28" s="10" t="s">
         <v>144</v>
       </c>
-      <c r="E28" s="15"/>
-      <c r="F28" s="13" t="s">
+      <c r="G28" s="15"/>
+      <c r="H28" s="13" t="s">
         <v>145</v>
       </c>
-      <c r="G28" s="3" t="s">
+      <c r="I28" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="H28" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="J28" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A29" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="B29" s="13" t="s">
+      <c r="D29" s="13" t="s">
         <v>147</v>
       </c>
-      <c r="C29" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="D29" s="10" t="s">
+      <c r="E29" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" s="10" t="s">
         <v>148</v>
       </c>
-      <c r="E29" s="15"/>
-      <c r="F29" s="13" t="s">
+      <c r="G29" s="15"/>
+      <c r="H29" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="G29" s="3" t="s">
+      <c r="I29" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="H29" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="J29" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A30" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="B30" s="13" t="s">
+      <c r="D30" s="13" t="s">
         <v>150</v>
       </c>
-      <c r="C30" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="D30" s="10" t="s">
+      <c r="E30" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F30" s="10" t="s">
         <v>151</v>
       </c>
-      <c r="E30" s="15"/>
-      <c r="F30" s="13" t="s">
+      <c r="G30" s="15"/>
+      <c r="H30" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="G30" s="3" t="s">
+      <c r="I30" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="H30" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="J30" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A31" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="B31" s="13" t="s">
+      <c r="D31" s="13" t="s">
         <v>153</v>
       </c>
-      <c r="C31" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="D31" s="10" t="s">
+      <c r="E31" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F31" s="10" t="s">
         <v>154</v>
       </c>
-      <c r="E31" s="15"/>
-      <c r="F31" s="13" t="s">
+      <c r="G31" s="15"/>
+      <c r="H31" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="G31" s="3" t="s">
+      <c r="I31" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="H31" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="J31" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A32" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="B32" s="13" t="s">
+      <c r="D32" s="13" t="s">
         <v>156</v>
       </c>
-      <c r="C32" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="D32" s="10" t="s">
+      <c r="E32" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F32" s="10" t="s">
         <v>157</v>
       </c>
-      <c r="E32" s="15"/>
-      <c r="F32" s="13" t="s">
+      <c r="G32" s="15"/>
+      <c r="H32" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="G32" s="3" t="s">
+      <c r="I32" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="H32" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="J32" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A33" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="B33" s="13" t="s">
+      <c r="D33" s="13" t="s">
         <v>159</v>
       </c>
-      <c r="C33" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="D33" s="10" t="s">
+      <c r="E33" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F33" s="10" t="s">
         <v>160</v>
       </c>
-      <c r="E33" s="15"/>
-      <c r="F33" s="13" t="s">
+      <c r="G33" s="15"/>
+      <c r="H33" s="13" t="s">
         <v>161</v>
       </c>
-      <c r="G33" s="3" t="s">
+      <c r="I33" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="H33" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="J33" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A34" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="B34" s="13" t="s">
+      <c r="D34" s="13" t="s">
         <v>163</v>
       </c>
-      <c r="C34" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="D34" s="10" t="s">
+      <c r="E34" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F34" s="10" t="s">
         <v>164</v>
       </c>
-      <c r="E34" s="15"/>
-      <c r="F34" s="13" t="s">
+      <c r="G34" s="15"/>
+      <c r="H34" s="13" t="s">
         <v>165</v>
       </c>
-      <c r="G34" s="3" t="s">
+      <c r="I34" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="H34" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="J34" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A35" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="B35" s="13" t="s">
+      <c r="D35" s="13" t="s">
         <v>167</v>
       </c>
-      <c r="C35" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="D35" s="10" t="s">
+      <c r="E35" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F35" s="10" t="s">
         <v>168</v>
       </c>
-      <c r="E35" s="15"/>
-      <c r="F35" s="13" t="s">
+      <c r="G35" s="15"/>
+      <c r="H35" s="13" t="s">
         <v>169</v>
       </c>
-      <c r="G35" s="3" t="s">
+      <c r="I35" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="H35" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="J35" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A36" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="B36" s="13" t="s">
+      <c r="D36" s="13" t="s">
         <v>171</v>
       </c>
-      <c r="C36" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="D36" s="10" t="s">
+      <c r="E36" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F36" s="10" t="s">
         <v>172</v>
       </c>
-      <c r="E36" s="15"/>
-      <c r="F36" s="13" t="s">
+      <c r="G36" s="15"/>
+      <c r="H36" s="13" t="s">
         <v>173</v>
       </c>
-      <c r="G36" s="3" t="s">
+      <c r="I36" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="H36" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="J36" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A37" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="B37" s="13" t="s">
+      <c r="D37" s="13" t="s">
         <v>175</v>
       </c>
-      <c r="C37" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="D37" s="10" t="s">
+      <c r="E37" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F37" s="10" t="s">
         <v>176</v>
       </c>
-      <c r="E37" s="15"/>
-      <c r="F37" s="13" t="s">
+      <c r="G37" s="15"/>
+      <c r="H37" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="G37" s="3" t="s">
+      <c r="I37" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="H37" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="J37" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A38" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="B38" s="13" t="s">
+      <c r="D38" s="13" t="s">
         <v>178</v>
       </c>
-      <c r="C38" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="D38" s="10" t="s">
+      <c r="E38" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F38" s="10" t="s">
         <v>179</v>
       </c>
-      <c r="E38" s="15"/>
-      <c r="F38" s="13">
+      <c r="G38" s="15"/>
+      <c r="H38" s="13">
         <v>51340770</v>
       </c>
-      <c r="G38" s="3" t="s">
+      <c r="I38" s="3" t="s">
         <v>180</v>
       </c>
-      <c r="H38" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="J38" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A39" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="B39" s="13" t="s">
+      <c r="D39" s="13" t="s">
         <v>181</v>
       </c>
-      <c r="C39" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="D39" s="10" t="s">
+      <c r="E39" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F39" s="10" t="s">
         <v>182</v>
       </c>
-      <c r="E39" s="15"/>
-      <c r="F39" s="13">
+      <c r="G39" s="15"/>
+      <c r="H39" s="13">
         <v>51340770</v>
       </c>
-      <c r="G39" s="3" t="s">
+      <c r="I39" s="3" t="s">
         <v>183</v>
       </c>
-      <c r="H39" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="J39" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A40" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="B40" s="13" t="s">
+      <c r="D40" s="13" t="s">
         <v>184</v>
       </c>
-      <c r="C40" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="D40" s="10" t="s">
+      <c r="E40" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F40" s="10" t="s">
         <v>185</v>
       </c>
-      <c r="E40" s="15"/>
-      <c r="F40" s="13" t="s">
+      <c r="G40" s="15"/>
+      <c r="H40" s="13" t="s">
         <v>186</v>
       </c>
-      <c r="G40" s="3" t="s">
+      <c r="I40" s="3" t="s">
         <v>187</v>
       </c>
-      <c r="H40" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="J40" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A41" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="B41" s="13" t="s">
+      <c r="D41" s="13" t="s">
         <v>188</v>
       </c>
-      <c r="C41" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="D41" s="10" t="s">
+      <c r="E41" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F41" s="10" t="s">
         <v>189</v>
       </c>
-      <c r="E41" s="15"/>
-      <c r="F41" s="13" t="s">
+      <c r="G41" s="15"/>
+      <c r="H41" s="13" t="s">
         <v>190</v>
       </c>
-      <c r="G41" s="3" t="s">
+      <c r="I41" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="H41" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="J41" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A42" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="B42" s="13" t="s">
+      <c r="D42" s="13" t="s">
         <v>192</v>
       </c>
-      <c r="C42" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="D42" s="10" t="s">
+      <c r="E42" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F42" s="10" t="s">
         <v>193</v>
       </c>
-      <c r="E42" s="15"/>
-      <c r="F42" s="13" t="s">
+      <c r="G42" s="15"/>
+      <c r="H42" s="13" t="s">
         <v>194</v>
       </c>
-      <c r="G42" s="3" t="s">
+      <c r="I42" s="3" t="s">
         <v>195</v>
       </c>
-      <c r="H42" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="J42" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A43" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="B43" s="13" t="s">
+      <c r="D43" s="13" t="s">
         <v>196</v>
       </c>
-      <c r="C43" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="D43" s="10" t="s">
+      <c r="E43" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F43" s="10" t="s">
         <v>197</v>
       </c>
-      <c r="E43" s="15"/>
-      <c r="F43" s="13" t="s">
+      <c r="G43" s="15"/>
+      <c r="H43" s="13" t="s">
         <v>198</v>
       </c>
-      <c r="H43" s="2" t="s">
+      <c r="J43" s="2" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="44" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A44" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="B44" s="13" t="s">
+      <c r="D44" s="13" t="s">
         <v>199</v>
       </c>
-      <c r="C44" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="D44" s="10" t="s">
+      <c r="E44" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F44" s="10" t="s">
         <v>200</v>
       </c>
-      <c r="E44" s="15"/>
-      <c r="F44" s="13" t="s">
+      <c r="G44" s="15"/>
+      <c r="H44" s="13" t="s">
         <v>105</v>
       </c>
-      <c r="G44" s="3" t="s">
+      <c r="I44" s="3" t="s">
         <v>201</v>
       </c>
-      <c r="H44" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="J44" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A45" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="B45" s="13" t="s">
+      <c r="D45" s="13" t="s">
         <v>202</v>
       </c>
-      <c r="C45" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="D45" s="10" t="s">
+      <c r="E45" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F45" s="10" t="s">
         <v>203</v>
       </c>
-      <c r="E45" s="15"/>
-      <c r="F45" s="13" t="s">
+      <c r="G45" s="15"/>
+      <c r="H45" s="13" t="s">
         <v>98</v>
       </c>
-      <c r="H45" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="J45" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A46" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="B46" s="13" t="s">
+      <c r="D46" s="13" t="s">
         <v>205</v>
       </c>
-      <c r="C46" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="D46" s="10" t="s">
+      <c r="E46" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F46" s="10" t="s">
         <v>204</v>
       </c>
-      <c r="E46" s="15"/>
-      <c r="F46" s="13" t="s">
+      <c r="G46" s="15"/>
+      <c r="H46" s="13" t="s">
         <v>206</v>
       </c>
-      <c r="H46" s="2" t="s">
+      <c r="J46" s="2" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="47" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A47" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="B47" s="13" t="s">
+      <c r="D47" s="13" t="s">
         <v>207</v>
       </c>
-      <c r="C47" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="D47" s="10" t="s">
+      <c r="E47" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F47" s="10" t="s">
         <v>208</v>
       </c>
-      <c r="E47" s="15"/>
-      <c r="F47" s="13" t="s">
+      <c r="G47" s="15"/>
+      <c r="H47" s="13" t="s">
         <v>209</v>
       </c>
-      <c r="G47" s="3" t="s">
+      <c r="I47" s="3" t="s">
         <v>210</v>
       </c>
-      <c r="H47" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="J47" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A48" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="B48" s="13" t="s">
+      <c r="D48" s="13" t="s">
         <v>211</v>
       </c>
-      <c r="C48" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="D48" s="10" t="s">
+      <c r="E48" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F48" s="10" t="s">
         <v>212</v>
       </c>
-      <c r="E48" s="15"/>
-      <c r="F48" s="13" t="s">
+      <c r="G48" s="15"/>
+      <c r="H48" s="13" t="s">
         <v>213</v>
       </c>
-      <c r="G48" s="3" t="s">
+      <c r="I48" s="3" t="s">
         <v>216</v>
       </c>
-      <c r="H48" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="J48" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A49" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="B49" s="13" t="s">
+      <c r="D49" s="13" t="s">
         <v>214</v>
       </c>
-      <c r="C49" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="D49" s="10" t="s">
+      <c r="E49" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F49" s="10" t="s">
         <v>215</v>
       </c>
-      <c r="E49" s="15"/>
-      <c r="F49" s="13" t="s">
+      <c r="G49" s="15"/>
+      <c r="H49" s="13" t="s">
         <v>105</v>
       </c>
-      <c r="G49" s="3" t="s">
+      <c r="I49" s="3" t="s">
         <v>217</v>
       </c>
-      <c r="H49" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="J49" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A50" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="B50" s="13" t="s">
+      <c r="D50" s="13" t="s">
         <v>218</v>
       </c>
-      <c r="C50" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="D50" s="10" t="s">
+      <c r="E50" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F50" s="10" t="s">
         <v>219</v>
       </c>
-      <c r="E50" s="15"/>
-      <c r="F50" s="13" t="s">
+      <c r="G50" s="15"/>
+      <c r="H50" s="13" t="s">
         <v>220</v>
       </c>
-      <c r="G50" s="3" t="s">
+      <c r="I50" s="3" t="s">
         <v>221</v>
       </c>
-      <c r="H50" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="J50" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A51" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="B51" s="13" t="s">
+      <c r="D51" s="13" t="s">
         <v>225</v>
       </c>
-      <c r="C51" s="2" t="s">
+      <c r="E51" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="D51" s="10" t="s">
+      <c r="F51" s="10" t="s">
         <v>223</v>
       </c>
-      <c r="E51" s="15" t="s">
+      <c r="G51" s="15" t="s">
         <v>228</v>
       </c>
-      <c r="G51" s="3" t="s">
+      <c r="I51" s="3" t="s">
         <v>224</v>
       </c>
-      <c r="H51" s="2" t="s">
+      <c r="J51" s="2" t="s">
         <v>226</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:Q1"/>
+  <autoFilter ref="A1:S1"/>
   <hyperlinks>
-    <hyperlink ref="G2" r:id="rId1"/>
-    <hyperlink ref="G3" r:id="rId2"/>
-    <hyperlink ref="G5" r:id="rId3"/>
-    <hyperlink ref="G7" r:id="rId4"/>
-    <hyperlink ref="G8" r:id="rId5"/>
-    <hyperlink ref="G9" r:id="rId6"/>
-    <hyperlink ref="G10" r:id="rId7"/>
-    <hyperlink ref="G11" r:id="rId8"/>
-    <hyperlink ref="Q2" r:id="rId9"/>
-    <hyperlink ref="G12" r:id="rId10"/>
-    <hyperlink ref="G13" r:id="rId11"/>
-    <hyperlink ref="G14" r:id="rId12"/>
-    <hyperlink ref="G15" r:id="rId13"/>
-    <hyperlink ref="G17" r:id="rId14"/>
-    <hyperlink ref="G18" r:id="rId15"/>
-    <hyperlink ref="G19" r:id="rId16"/>
-    <hyperlink ref="G20" r:id="rId17"/>
-    <hyperlink ref="G21" r:id="rId18"/>
-    <hyperlink ref="G22" r:id="rId19"/>
-    <hyperlink ref="G24" r:id="rId20"/>
-    <hyperlink ref="G25" r:id="rId21"/>
-    <hyperlink ref="G26" r:id="rId22"/>
-    <hyperlink ref="G27" r:id="rId23"/>
-    <hyperlink ref="G28" r:id="rId24"/>
-    <hyperlink ref="G29" r:id="rId25"/>
-    <hyperlink ref="G30" r:id="rId26"/>
-    <hyperlink ref="G31" r:id="rId27"/>
-    <hyperlink ref="G32" r:id="rId28"/>
-    <hyperlink ref="G33" r:id="rId29"/>
-    <hyperlink ref="G34" r:id="rId30"/>
-    <hyperlink ref="G35" r:id="rId31"/>
-    <hyperlink ref="G36" r:id="rId32"/>
-    <hyperlink ref="G37" r:id="rId33"/>
-    <hyperlink ref="G38" r:id="rId34"/>
-    <hyperlink ref="G39" r:id="rId35"/>
-    <hyperlink ref="G40" r:id="rId36"/>
-    <hyperlink ref="G41" r:id="rId37"/>
-    <hyperlink ref="G42" r:id="rId38"/>
-    <hyperlink ref="G44" r:id="rId39"/>
-    <hyperlink ref="G47" r:id="rId40"/>
-    <hyperlink ref="G48" r:id="rId41"/>
-    <hyperlink ref="G49" r:id="rId42"/>
-    <hyperlink ref="G50" r:id="rId43"/>
-    <hyperlink ref="G51" r:id="rId44"/>
+    <hyperlink ref="I2" r:id="rId1"/>
+    <hyperlink ref="I3" r:id="rId2"/>
+    <hyperlink ref="I5" r:id="rId3"/>
+    <hyperlink ref="I7" r:id="rId4"/>
+    <hyperlink ref="I8" r:id="rId5"/>
+    <hyperlink ref="I9" r:id="rId6"/>
+    <hyperlink ref="I10" r:id="rId7"/>
+    <hyperlink ref="I11" r:id="rId8"/>
+    <hyperlink ref="S2" r:id="rId9"/>
+    <hyperlink ref="I12" r:id="rId10"/>
+    <hyperlink ref="I13" r:id="rId11"/>
+    <hyperlink ref="I14" r:id="rId12"/>
+    <hyperlink ref="I15" r:id="rId13"/>
+    <hyperlink ref="I17" r:id="rId14"/>
+    <hyperlink ref="I18" r:id="rId15"/>
+    <hyperlink ref="I19" r:id="rId16"/>
+    <hyperlink ref="I20" r:id="rId17"/>
+    <hyperlink ref="I21" r:id="rId18"/>
+    <hyperlink ref="I22" r:id="rId19"/>
+    <hyperlink ref="I24" r:id="rId20"/>
+    <hyperlink ref="I25" r:id="rId21"/>
+    <hyperlink ref="I26" r:id="rId22"/>
+    <hyperlink ref="I27" r:id="rId23"/>
+    <hyperlink ref="I28" r:id="rId24"/>
+    <hyperlink ref="I29" r:id="rId25"/>
+    <hyperlink ref="I30" r:id="rId26"/>
+    <hyperlink ref="I31" r:id="rId27"/>
+    <hyperlink ref="I32" r:id="rId28"/>
+    <hyperlink ref="I33" r:id="rId29"/>
+    <hyperlink ref="I34" r:id="rId30"/>
+    <hyperlink ref="I35" r:id="rId31"/>
+    <hyperlink ref="I36" r:id="rId32"/>
+    <hyperlink ref="I37" r:id="rId33"/>
+    <hyperlink ref="I38" r:id="rId34"/>
+    <hyperlink ref="I39" r:id="rId35"/>
+    <hyperlink ref="I40" r:id="rId36"/>
+    <hyperlink ref="I41" r:id="rId37"/>
+    <hyperlink ref="I42" r:id="rId38"/>
+    <hyperlink ref="I44" r:id="rId39"/>
+    <hyperlink ref="I47" r:id="rId40"/>
+    <hyperlink ref="I48" r:id="rId41"/>
+    <hyperlink ref="I49" r:id="rId42"/>
+    <hyperlink ref="I50" r:id="rId43"/>
+    <hyperlink ref="I51" r:id="rId44"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId45"/>

--- a/RIMEDIE/Directorio_Contactos_CDMX.xlsx
+++ b/RIMEDIE/Directorio_Contactos_CDMX.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alejandro\Desktop\afchavez19\RIMEDIE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Adriana\Desktop\afchavez-019\RIMEDIE\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="441" uniqueCount="231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="675" uniqueCount="293">
   <si>
     <t>Nombre de la Escuela</t>
   </si>
@@ -717,6 +717,192 @@
   </si>
   <si>
     <t>División</t>
+  </si>
+  <si>
+    <t>Tipo de Agencia</t>
+  </si>
+  <si>
+    <t>Individuo</t>
+  </si>
+  <si>
+    <t>General</t>
+  </si>
+  <si>
+    <t>Media Superior</t>
+  </si>
+  <si>
+    <t>Comunitaria</t>
+  </si>
+  <si>
+    <t>Pregrado y Postgrado</t>
+  </si>
+  <si>
+    <t>Administración interna</t>
+  </si>
+  <si>
+    <t>Cibereducación</t>
+  </si>
+  <si>
+    <t>Nivel Superior</t>
+  </si>
+  <si>
+    <t>Educación a Distancia</t>
+  </si>
+  <si>
+    <t>Contacto</t>
+  </si>
+  <si>
+    <t>atencionciudadana@educacion.cdmx.gob.mx</t>
+  </si>
+  <si>
+    <t>Lic. Rubén Durán Soto</t>
+  </si>
+  <si>
+    <t>Subdirector de Estudios de Pregrado y Postgrado a Distancia</t>
+  </si>
+  <si>
+    <t>ruben.duran@educacion.cdmx.gob.mx</t>
+  </si>
+  <si>
+    <t>Mtra. Concepción Ávila Argumosa</t>
+  </si>
+  <si>
+    <t>Subdirección de Transferecia de Patentamiento y Licencamiento</t>
+  </si>
+  <si>
+    <t>55121012 ext 309</t>
+  </si>
+  <si>
+    <t>cavila@seciti.cdmx.gob.mx</t>
+  </si>
+  <si>
+    <t>Lic. Angélica Aspeitia Cuéllar</t>
+  </si>
+  <si>
+    <t>Subdirección de Operación de Fondos</t>
+  </si>
+  <si>
+    <t>55121012 ext 210</t>
+  </si>
+  <si>
+    <t>aaspeitia@seciti.cdmx.gob.mx</t>
+  </si>
+  <si>
+    <t>José Aurelio Cota Zazueta</t>
+  </si>
+  <si>
+    <t>Subdirección de Servicios Digitales</t>
+  </si>
+  <si>
+    <t>51340770 ext 1209</t>
+  </si>
+  <si>
+    <t>jose.cota@educacion.cdmx.gob.mx</t>
+  </si>
+  <si>
+    <t>Jovanhy utiérrez Lira</t>
+  </si>
+  <si>
+    <t>Subdirección de Redes y Soporte</t>
+  </si>
+  <si>
+    <t>51340770 ext 1403</t>
+  </si>
+  <si>
+    <t>jovanhy.gutierrez@educacion.cdmx.gob.mx</t>
+  </si>
+  <si>
+    <t>María de Jesús Vergara Alba</t>
+  </si>
+  <si>
+    <t>Subdirección de Formación para la Educación Comunitaria</t>
+  </si>
+  <si>
+    <t>maria.vergara@educacion.cdmx.gob.mx</t>
+  </si>
+  <si>
+    <t>Ricardo Venegas Hernández</t>
+  </si>
+  <si>
+    <t>Subdirección Operativa Sur</t>
+  </si>
+  <si>
+    <t>ricardo.venegas@educacion.cdmx.gob.mx</t>
+  </si>
+  <si>
+    <t>Socorro Torres Sánchez</t>
+  </si>
+  <si>
+    <t>Subdirección Operativa Sur Poniente</t>
+  </si>
+  <si>
+    <t>socorro.torres@educacion.cdmx.gob.mx</t>
+  </si>
+  <si>
+    <t>Indígena</t>
+  </si>
+  <si>
+    <t>Eva Margarita  Quiroga García</t>
+  </si>
+  <si>
+    <t>Subdirección de Educación Intercultural y Bilingüe con Población Indígena y Migrante</t>
+  </si>
+  <si>
+    <t>eva.quiroga@educacion.cdmx.gob.mx</t>
+  </si>
+  <si>
+    <t>Carlos Hernández Martínez</t>
+  </si>
+  <si>
+    <t>Subdirección Operativa Poniente</t>
+  </si>
+  <si>
+    <t>carlos.martinez@educacion.cdmx.gob.mx</t>
+  </si>
+  <si>
+    <t>René Constanzo Reyes Córdova</t>
+  </si>
+  <si>
+    <t>Subdirección Operativa Iztapalapa</t>
+  </si>
+  <si>
+    <t>rene.reyes@educacion.cdmx.gob.mx</t>
+  </si>
+  <si>
+    <t>Marysol Becerra Maldonado</t>
+  </si>
+  <si>
+    <t>Subdirección de Comunicación Educativa Comunitaria</t>
+  </si>
+  <si>
+    <t>marysol.becerra@educacion.cdmx.gob.mx</t>
+  </si>
+  <si>
+    <t>Jesús Felipe Alanis Maríquez</t>
+  </si>
+  <si>
+    <t>Subdirección de Desarrollo de Competencias Técnicas en PILARES</t>
+  </si>
+  <si>
+    <t>51340770 ext 1521</t>
+  </si>
+  <si>
+    <t>51340770 ext 1306</t>
+  </si>
+  <si>
+    <t>jesus.alanis@educacion.cdmx.gob.mx</t>
+  </si>
+  <si>
+    <t>Julio Alonso Reynoso</t>
+  </si>
+  <si>
+    <t>Subdirección Operativa Norte</t>
+  </si>
+  <si>
+    <t>julio.alonso@educacion.cdmx.gob.mx</t>
+  </si>
+  <si>
+    <t>Avenida Chapultepec 49, Colonia Centro (Área 1), C.P. 06000, Alcaldía Cuauhtémoc. Ciudad de México</t>
   </si>
 </sst>
 </file>
@@ -906,7 +1092,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -963,6 +1149,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1269,10 +1458,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S51"/>
+  <dimension ref="A1:S66"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="A60" workbookViewId="0">
+      <selection activeCell="A66" sqref="A66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1293,7 +1482,9 @@
       <c r="A1" s="14" t="s">
         <v>229</v>
       </c>
-      <c r="B1" s="18"/>
+      <c r="B1" s="18" t="s">
+        <v>231</v>
+      </c>
       <c r="C1" s="18" t="s">
         <v>230</v>
       </c>
@@ -1323,8 +1514,12 @@
       <c r="A2" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="19"/>
-      <c r="C2" s="19"/>
+      <c r="B2" s="19" t="s">
+        <v>232</v>
+      </c>
+      <c r="C2" s="19" t="s">
+        <v>233</v>
+      </c>
       <c r="D2" s="12" t="s">
         <v>40</v>
       </c>
@@ -1353,6 +1548,12 @@
       <c r="A3" s="17" t="s">
         <v>5</v>
       </c>
+      <c r="B3" s="19" t="s">
+        <v>232</v>
+      </c>
+      <c r="C3" s="20" t="s">
+        <v>233</v>
+      </c>
       <c r="D3" s="13" t="s">
         <v>45</v>
       </c>
@@ -1377,6 +1578,12 @@
       <c r="A4" s="17" t="s">
         <v>5</v>
       </c>
+      <c r="B4" s="19" t="s">
+        <v>232</v>
+      </c>
+      <c r="C4" s="20" t="s">
+        <v>233</v>
+      </c>
       <c r="D4" s="13" t="s">
         <v>49</v>
       </c>
@@ -1398,6 +1605,12 @@
       <c r="A5" s="17" t="s">
         <v>5</v>
       </c>
+      <c r="B5" s="19" t="s">
+        <v>232</v>
+      </c>
+      <c r="C5" s="20" t="s">
+        <v>233</v>
+      </c>
       <c r="D5" s="13" t="s">
         <v>52</v>
       </c>
@@ -1422,6 +1635,12 @@
       <c r="A6" s="17" t="s">
         <v>5</v>
       </c>
+      <c r="B6" s="19" t="s">
+        <v>232</v>
+      </c>
+      <c r="C6" s="20" t="s">
+        <v>233</v>
+      </c>
       <c r="D6" s="13" t="s">
         <v>56</v>
       </c>
@@ -1443,6 +1662,12 @@
       <c r="A7" s="17" t="s">
         <v>5</v>
       </c>
+      <c r="B7" s="19" t="s">
+        <v>232</v>
+      </c>
+      <c r="C7" s="20" t="s">
+        <v>233</v>
+      </c>
       <c r="D7" s="13" t="s">
         <v>59</v>
       </c>
@@ -1467,6 +1692,12 @@
       <c r="A8" s="17" t="s">
         <v>5</v>
       </c>
+      <c r="B8" s="19" t="s">
+        <v>232</v>
+      </c>
+      <c r="C8" s="20" t="s">
+        <v>233</v>
+      </c>
       <c r="D8" s="13" t="s">
         <v>63</v>
       </c>
@@ -1491,6 +1722,12 @@
       <c r="A9" s="17" t="s">
         <v>5</v>
       </c>
+      <c r="B9" s="19" t="s">
+        <v>232</v>
+      </c>
+      <c r="C9" s="20" t="s">
+        <v>233</v>
+      </c>
       <c r="D9" s="13" t="s">
         <v>67</v>
       </c>
@@ -1515,6 +1752,12 @@
       <c r="A10" s="17" t="s">
         <v>5</v>
       </c>
+      <c r="B10" s="19" t="s">
+        <v>232</v>
+      </c>
+      <c r="C10" s="20" t="s">
+        <v>233</v>
+      </c>
       <c r="D10" s="13" t="s">
         <v>71</v>
       </c>
@@ -1539,6 +1782,12 @@
       <c r="A11" s="17" t="s">
         <v>5</v>
       </c>
+      <c r="B11" s="19" t="s">
+        <v>232</v>
+      </c>
+      <c r="C11" s="20" t="s">
+        <v>237</v>
+      </c>
       <c r="D11" s="13" t="s">
         <v>75</v>
       </c>
@@ -1563,6 +1812,12 @@
       <c r="A12" s="17" t="s">
         <v>5</v>
       </c>
+      <c r="B12" s="19" t="s">
+        <v>232</v>
+      </c>
+      <c r="C12" s="20" t="s">
+        <v>233</v>
+      </c>
       <c r="D12" s="13" t="s">
         <v>81</v>
       </c>
@@ -1587,6 +1842,12 @@
       <c r="A13" s="17" t="s">
         <v>5</v>
       </c>
+      <c r="B13" s="19" t="s">
+        <v>232</v>
+      </c>
+      <c r="C13" s="20" t="s">
+        <v>234</v>
+      </c>
       <c r="D13" s="13" t="s">
         <v>85</v>
       </c>
@@ -1611,6 +1872,12 @@
       <c r="A14" s="17" t="s">
         <v>5</v>
       </c>
+      <c r="B14" s="19" t="s">
+        <v>232</v>
+      </c>
+      <c r="C14" s="20" t="s">
+        <v>233</v>
+      </c>
       <c r="D14" s="13" t="s">
         <v>89</v>
       </c>
@@ -1635,6 +1902,12 @@
       <c r="A15" s="17" t="s">
         <v>5</v>
       </c>
+      <c r="B15" s="19" t="s">
+        <v>232</v>
+      </c>
+      <c r="C15" s="20" t="s">
+        <v>235</v>
+      </c>
       <c r="D15" s="13" t="s">
         <v>93</v>
       </c>
@@ -1659,6 +1932,12 @@
       <c r="A16" s="17" t="s">
         <v>5</v>
       </c>
+      <c r="B16" s="19" t="s">
+        <v>232</v>
+      </c>
+      <c r="C16" s="20" t="s">
+        <v>233</v>
+      </c>
       <c r="D16" s="13" t="s">
         <v>96</v>
       </c>
@@ -1680,6 +1959,12 @@
       <c r="A17" s="17" t="s">
         <v>5</v>
       </c>
+      <c r="B17" s="19" t="s">
+        <v>232</v>
+      </c>
+      <c r="C17" s="20" t="s">
+        <v>235</v>
+      </c>
       <c r="D17" s="13" t="s">
         <v>99</v>
       </c>
@@ -1704,6 +1989,12 @@
       <c r="A18" s="17" t="s">
         <v>5</v>
       </c>
+      <c r="B18" s="19" t="s">
+        <v>232</v>
+      </c>
+      <c r="C18" s="20" t="s">
+        <v>233</v>
+      </c>
       <c r="D18" s="13" t="s">
         <v>103</v>
       </c>
@@ -1728,6 +2019,12 @@
       <c r="A19" s="17" t="s">
         <v>5</v>
       </c>
+      <c r="B19" s="19" t="s">
+        <v>232</v>
+      </c>
+      <c r="C19" s="20" t="s">
+        <v>233</v>
+      </c>
       <c r="D19" s="13" t="s">
         <v>107</v>
       </c>
@@ -1752,6 +2049,12 @@
       <c r="A20" s="17" t="s">
         <v>5</v>
       </c>
+      <c r="B20" s="19" t="s">
+        <v>232</v>
+      </c>
+      <c r="C20" s="20" t="s">
+        <v>233</v>
+      </c>
       <c r="D20" s="13" t="s">
         <v>111</v>
       </c>
@@ -1776,6 +2079,12 @@
       <c r="A21" s="17" t="s">
         <v>5</v>
       </c>
+      <c r="B21" s="19" t="s">
+        <v>232</v>
+      </c>
+      <c r="C21" s="20" t="s">
+        <v>236</v>
+      </c>
       <c r="D21" s="13" t="s">
         <v>115</v>
       </c>
@@ -1800,6 +2109,12 @@
       <c r="A22" s="17" t="s">
         <v>5</v>
       </c>
+      <c r="B22" s="19" t="s">
+        <v>232</v>
+      </c>
+      <c r="C22" s="20" t="s">
+        <v>233</v>
+      </c>
       <c r="D22" s="13" t="s">
         <v>122</v>
       </c>
@@ -1824,6 +2139,12 @@
       <c r="A23" s="17" t="s">
         <v>5</v>
       </c>
+      <c r="B23" s="19" t="s">
+        <v>232</v>
+      </c>
+      <c r="C23" s="20" t="s">
+        <v>233</v>
+      </c>
       <c r="D23" s="13" t="s">
         <v>126</v>
       </c>
@@ -1841,6 +2162,12 @@
     <row r="24" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A24" s="17" t="s">
         <v>5</v>
+      </c>
+      <c r="B24" s="19" t="s">
+        <v>232</v>
+      </c>
+      <c r="C24" s="20" t="s">
+        <v>233</v>
       </c>
       <c r="D24" s="13" t="s">
         <v>128</v>
@@ -1866,6 +2193,12 @@
       <c r="A25" s="17" t="s">
         <v>5</v>
       </c>
+      <c r="B25" s="19" t="s">
+        <v>232</v>
+      </c>
+      <c r="C25" s="20" t="s">
+        <v>233</v>
+      </c>
       <c r="D25" s="13" t="s">
         <v>131</v>
       </c>
@@ -1890,6 +2223,12 @@
       <c r="A26" s="17" t="s">
         <v>5</v>
       </c>
+      <c r="B26" s="19" t="s">
+        <v>232</v>
+      </c>
+      <c r="C26" s="20" t="s">
+        <v>233</v>
+      </c>
       <c r="D26" s="13" t="s">
         <v>135</v>
       </c>
@@ -1914,6 +2253,12 @@
       <c r="A27" s="17" t="s">
         <v>5</v>
       </c>
+      <c r="B27" s="19" t="s">
+        <v>232</v>
+      </c>
+      <c r="C27" s="20" t="s">
+        <v>233</v>
+      </c>
       <c r="D27" s="13" t="s">
         <v>139</v>
       </c>
@@ -1938,6 +2283,12 @@
       <c r="A28" s="17" t="s">
         <v>5</v>
       </c>
+      <c r="B28" s="19" t="s">
+        <v>232</v>
+      </c>
+      <c r="C28" s="20" t="s">
+        <v>234</v>
+      </c>
       <c r="D28" s="13" t="s">
         <v>143</v>
       </c>
@@ -1962,6 +2313,12 @@
       <c r="A29" s="17" t="s">
         <v>5</v>
       </c>
+      <c r="B29" s="19" t="s">
+        <v>232</v>
+      </c>
+      <c r="C29" s="20" t="s">
+        <v>233</v>
+      </c>
       <c r="D29" s="13" t="s">
         <v>147</v>
       </c>
@@ -1986,6 +2343,12 @@
       <c r="A30" s="17" t="s">
         <v>5</v>
       </c>
+      <c r="B30" s="19" t="s">
+        <v>232</v>
+      </c>
+      <c r="C30" s="20" t="s">
+        <v>238</v>
+      </c>
       <c r="D30" s="13" t="s">
         <v>150</v>
       </c>
@@ -2010,6 +2373,12 @@
       <c r="A31" s="17" t="s">
         <v>5</v>
       </c>
+      <c r="B31" s="19" t="s">
+        <v>232</v>
+      </c>
+      <c r="C31" s="20" t="s">
+        <v>233</v>
+      </c>
       <c r="D31" s="13" t="s">
         <v>153</v>
       </c>
@@ -2034,6 +2403,12 @@
       <c r="A32" s="17" t="s">
         <v>5</v>
       </c>
+      <c r="B32" s="19" t="s">
+        <v>232</v>
+      </c>
+      <c r="C32" s="20" t="s">
+        <v>233</v>
+      </c>
       <c r="D32" s="13" t="s">
         <v>156</v>
       </c>
@@ -2058,6 +2433,12 @@
       <c r="A33" s="17" t="s">
         <v>5</v>
       </c>
+      <c r="B33" s="19" t="s">
+        <v>232</v>
+      </c>
+      <c r="C33" s="20" t="s">
+        <v>233</v>
+      </c>
       <c r="D33" s="13" t="s">
         <v>159</v>
       </c>
@@ -2082,6 +2463,12 @@
       <c r="A34" s="17" t="s">
         <v>5</v>
       </c>
+      <c r="B34" s="19" t="s">
+        <v>232</v>
+      </c>
+      <c r="C34" s="20" t="s">
+        <v>237</v>
+      </c>
       <c r="D34" s="13" t="s">
         <v>163</v>
       </c>
@@ -2106,6 +2493,12 @@
       <c r="A35" s="17" t="s">
         <v>5</v>
       </c>
+      <c r="B35" s="19" t="s">
+        <v>232</v>
+      </c>
+      <c r="C35" s="20" t="s">
+        <v>237</v>
+      </c>
       <c r="D35" s="13" t="s">
         <v>167</v>
       </c>
@@ -2130,6 +2523,12 @@
       <c r="A36" s="17" t="s">
         <v>5</v>
       </c>
+      <c r="B36" s="19" t="s">
+        <v>232</v>
+      </c>
+      <c r="C36" s="20" t="s">
+        <v>237</v>
+      </c>
       <c r="D36" s="13" t="s">
         <v>171</v>
       </c>
@@ -2154,6 +2553,12 @@
       <c r="A37" s="17" t="s">
         <v>5</v>
       </c>
+      <c r="B37" s="19" t="s">
+        <v>232</v>
+      </c>
+      <c r="C37" s="20" t="s">
+        <v>233</v>
+      </c>
       <c r="D37" s="13" t="s">
         <v>175</v>
       </c>
@@ -2178,6 +2583,12 @@
       <c r="A38" s="17" t="s">
         <v>5</v>
       </c>
+      <c r="B38" s="19" t="s">
+        <v>232</v>
+      </c>
+      <c r="C38" s="20" t="s">
+        <v>239</v>
+      </c>
       <c r="D38" s="13" t="s">
         <v>178</v>
       </c>
@@ -2202,6 +2613,12 @@
       <c r="A39" s="17" t="s">
         <v>5</v>
       </c>
+      <c r="B39" s="19" t="s">
+        <v>232</v>
+      </c>
+      <c r="C39" s="20" t="s">
+        <v>234</v>
+      </c>
       <c r="D39" s="13" t="s">
         <v>181</v>
       </c>
@@ -2226,6 +2643,12 @@
       <c r="A40" s="17" t="s">
         <v>5</v>
       </c>
+      <c r="B40" s="19" t="s">
+        <v>232</v>
+      </c>
+      <c r="C40" s="20" t="s">
+        <v>233</v>
+      </c>
       <c r="D40" s="13" t="s">
         <v>184</v>
       </c>
@@ -2250,6 +2673,12 @@
       <c r="A41" s="17" t="s">
         <v>5</v>
       </c>
+      <c r="B41" s="19" t="s">
+        <v>232</v>
+      </c>
+      <c r="C41" s="20" t="s">
+        <v>233</v>
+      </c>
       <c r="D41" s="13" t="s">
         <v>188</v>
       </c>
@@ -2274,6 +2703,12 @@
       <c r="A42" s="17" t="s">
         <v>5</v>
       </c>
+      <c r="B42" s="19" t="s">
+        <v>232</v>
+      </c>
+      <c r="C42" s="20" t="s">
+        <v>233</v>
+      </c>
       <c r="D42" s="13" t="s">
         <v>192</v>
       </c>
@@ -2298,6 +2733,12 @@
       <c r="A43" s="17" t="s">
         <v>5</v>
       </c>
+      <c r="B43" s="19" t="s">
+        <v>232</v>
+      </c>
+      <c r="C43" s="20" t="s">
+        <v>233</v>
+      </c>
       <c r="D43" s="13" t="s">
         <v>196</v>
       </c>
@@ -2319,6 +2760,12 @@
       <c r="A44" s="17" t="s">
         <v>5</v>
       </c>
+      <c r="B44" s="19" t="s">
+        <v>232</v>
+      </c>
+      <c r="C44" s="20" t="s">
+        <v>233</v>
+      </c>
       <c r="D44" s="13" t="s">
         <v>199</v>
       </c>
@@ -2343,6 +2790,12 @@
       <c r="A45" s="17" t="s">
         <v>5</v>
       </c>
+      <c r="B45" s="19" t="s">
+        <v>232</v>
+      </c>
+      <c r="C45" s="20" t="s">
+        <v>233</v>
+      </c>
       <c r="D45" s="13" t="s">
         <v>202</v>
       </c>
@@ -2364,6 +2817,12 @@
       <c r="A46" s="17" t="s">
         <v>5</v>
       </c>
+      <c r="B46" s="19" t="s">
+        <v>232</v>
+      </c>
+      <c r="C46" s="20" t="s">
+        <v>233</v>
+      </c>
       <c r="D46" s="13" t="s">
         <v>205</v>
       </c>
@@ -2385,6 +2844,12 @@
       <c r="A47" s="17" t="s">
         <v>5</v>
       </c>
+      <c r="B47" s="19" t="s">
+        <v>232</v>
+      </c>
+      <c r="C47" s="20" t="s">
+        <v>233</v>
+      </c>
       <c r="D47" s="13" t="s">
         <v>207</v>
       </c>
@@ -2409,6 +2874,12 @@
       <c r="A48" s="17" t="s">
         <v>5</v>
       </c>
+      <c r="B48" s="19" t="s">
+        <v>232</v>
+      </c>
+      <c r="C48" s="20" t="s">
+        <v>233</v>
+      </c>
       <c r="D48" s="13" t="s">
         <v>211</v>
       </c>
@@ -2433,6 +2904,12 @@
       <c r="A49" s="17" t="s">
         <v>5</v>
       </c>
+      <c r="B49" s="19" t="s">
+        <v>232</v>
+      </c>
+      <c r="C49" s="20" t="s">
+        <v>240</v>
+      </c>
       <c r="D49" s="13" t="s">
         <v>214</v>
       </c>
@@ -2457,6 +2934,12 @@
       <c r="A50" s="17" t="s">
         <v>5</v>
       </c>
+      <c r="B50" s="19" t="s">
+        <v>232</v>
+      </c>
+      <c r="C50" s="20" t="s">
+        <v>236</v>
+      </c>
       <c r="D50" s="13" t="s">
         <v>218</v>
       </c>
@@ -2481,6 +2964,12 @@
       <c r="A51" s="17" t="s">
         <v>5</v>
       </c>
+      <c r="B51" s="19" t="s">
+        <v>232</v>
+      </c>
+      <c r="C51" s="20" t="s">
+        <v>233</v>
+      </c>
       <c r="D51" s="13" t="s">
         <v>225</v>
       </c>
@@ -2498,6 +2987,438 @@
       </c>
       <c r="J51" s="2" t="s">
         <v>226</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A52" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="B52" s="20" t="s">
+        <v>241</v>
+      </c>
+      <c r="C52" s="20" t="s">
+        <v>233</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E52" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F52" s="10" t="s">
+        <v>241</v>
+      </c>
+      <c r="H52" s="13">
+        <v>51340770</v>
+      </c>
+      <c r="I52" s="21" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A53" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="B53" s="20" t="s">
+        <v>232</v>
+      </c>
+      <c r="C53" s="20" t="s">
+        <v>236</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="E53" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F53" s="10" t="s">
+        <v>244</v>
+      </c>
+      <c r="H53" s="13" t="s">
+        <v>220</v>
+      </c>
+      <c r="I53" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="J53" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A54" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="B54" s="20" t="s">
+        <v>232</v>
+      </c>
+      <c r="C54" s="20" t="s">
+        <v>239</v>
+      </c>
+      <c r="D54" s="13" t="s">
+        <v>246</v>
+      </c>
+      <c r="E54" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F54" s="10" t="s">
+        <v>247</v>
+      </c>
+      <c r="H54" s="13" t="s">
+        <v>248</v>
+      </c>
+      <c r="I54" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="J54" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A55" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="B55" s="20" t="s">
+        <v>232</v>
+      </c>
+      <c r="C55" s="20" t="s">
+        <v>237</v>
+      </c>
+      <c r="D55" s="13" t="s">
+        <v>250</v>
+      </c>
+      <c r="E55" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F55" s="10" t="s">
+        <v>251</v>
+      </c>
+      <c r="H55" s="13" t="s">
+        <v>252</v>
+      </c>
+      <c r="I55" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="J55" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A56" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="B56" s="20" t="s">
+        <v>232</v>
+      </c>
+      <c r="C56" s="20" t="s">
+        <v>233</v>
+      </c>
+      <c r="D56" s="13" t="s">
+        <v>254</v>
+      </c>
+      <c r="E56" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F56" s="10" t="s">
+        <v>255</v>
+      </c>
+      <c r="H56" s="13" t="s">
+        <v>256</v>
+      </c>
+      <c r="I56" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="J56" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A57" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="B57" s="20" t="s">
+        <v>232</v>
+      </c>
+      <c r="C57" s="20" t="s">
+        <v>233</v>
+      </c>
+      <c r="D57" s="13" t="s">
+        <v>258</v>
+      </c>
+      <c r="E57" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F57" s="10" t="s">
+        <v>259</v>
+      </c>
+      <c r="H57" s="13" t="s">
+        <v>260</v>
+      </c>
+      <c r="I57" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="J57" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A58" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="B58" s="20" t="s">
+        <v>232</v>
+      </c>
+      <c r="C58" s="20" t="s">
+        <v>235</v>
+      </c>
+      <c r="D58" s="13" t="s">
+        <v>262</v>
+      </c>
+      <c r="E58" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F58" s="10" t="s">
+        <v>263</v>
+      </c>
+      <c r="H58" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="I58" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="J58" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A59" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="B59" s="20" t="s">
+        <v>232</v>
+      </c>
+      <c r="C59" s="20" t="s">
+        <v>233</v>
+      </c>
+      <c r="D59" s="13" t="s">
+        <v>265</v>
+      </c>
+      <c r="E59" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F59" s="10" t="s">
+        <v>266</v>
+      </c>
+      <c r="H59" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="I59" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="J59" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A60" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="B60" s="20" t="s">
+        <v>232</v>
+      </c>
+      <c r="C60" s="20" t="s">
+        <v>233</v>
+      </c>
+      <c r="D60" s="13" t="s">
+        <v>268</v>
+      </c>
+      <c r="E60" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F60" s="10" t="s">
+        <v>269</v>
+      </c>
+      <c r="H60" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="I60" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="J60" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A61" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="B61" s="20" t="s">
+        <v>232</v>
+      </c>
+      <c r="C61" s="20" t="s">
+        <v>271</v>
+      </c>
+      <c r="D61" s="13" t="s">
+        <v>272</v>
+      </c>
+      <c r="E61" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F61" s="10" t="s">
+        <v>273</v>
+      </c>
+      <c r="H61" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="I61" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="J61" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A62" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="B62" s="20" t="s">
+        <v>232</v>
+      </c>
+      <c r="C62" s="20" t="s">
+        <v>233</v>
+      </c>
+      <c r="D62" s="13" t="s">
+        <v>275</v>
+      </c>
+      <c r="E62" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F62" s="10" t="s">
+        <v>276</v>
+      </c>
+      <c r="H62" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="I62" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="J62" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A63" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="B63" s="20" t="s">
+        <v>232</v>
+      </c>
+      <c r="C63" s="20" t="s">
+        <v>233</v>
+      </c>
+      <c r="D63" s="13" t="s">
+        <v>278</v>
+      </c>
+      <c r="E63" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F63" s="10" t="s">
+        <v>279</v>
+      </c>
+      <c r="H63" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="I63" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="J63" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A64" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="B64" s="20" t="s">
+        <v>232</v>
+      </c>
+      <c r="C64" s="20" t="s">
+        <v>235</v>
+      </c>
+      <c r="D64" s="13" t="s">
+        <v>281</v>
+      </c>
+      <c r="E64" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F64" s="10" t="s">
+        <v>282</v>
+      </c>
+      <c r="H64" s="13" t="s">
+        <v>286</v>
+      </c>
+      <c r="I64" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="J64" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A65" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="B65" s="20" t="s">
+        <v>232</v>
+      </c>
+      <c r="C65" s="20" t="s">
+        <v>233</v>
+      </c>
+      <c r="D65" s="13" t="s">
+        <v>284</v>
+      </c>
+      <c r="E65" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F65" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="H65" s="13" t="s">
+        <v>287</v>
+      </c>
+      <c r="I65" s="3" t="s">
+        <v>288</v>
+      </c>
+      <c r="J65" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A66" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="B66" s="20" t="s">
+        <v>232</v>
+      </c>
+      <c r="C66" s="20" t="s">
+        <v>233</v>
+      </c>
+      <c r="D66" s="13" t="s">
+        <v>289</v>
+      </c>
+      <c r="E66" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F66" s="10" t="s">
+        <v>290</v>
+      </c>
+      <c r="H66" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="I66" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="J66" s="2" t="s">
+        <v>292</v>
       </c>
     </row>
   </sheetData>
@@ -2547,9 +3468,24 @@
     <hyperlink ref="I49" r:id="rId42"/>
     <hyperlink ref="I50" r:id="rId43"/>
     <hyperlink ref="I51" r:id="rId44"/>
+    <hyperlink ref="I52" r:id="rId45"/>
+    <hyperlink ref="I53" r:id="rId46"/>
+    <hyperlink ref="I54" r:id="rId47"/>
+    <hyperlink ref="I55" r:id="rId48"/>
+    <hyperlink ref="I56" r:id="rId49"/>
+    <hyperlink ref="I57" r:id="rId50"/>
+    <hyperlink ref="I58" r:id="rId51"/>
+    <hyperlink ref="I59" r:id="rId52"/>
+    <hyperlink ref="I60" r:id="rId53"/>
+    <hyperlink ref="I61" r:id="rId54"/>
+    <hyperlink ref="I62" r:id="rId55"/>
+    <hyperlink ref="I63" r:id="rId56"/>
+    <hyperlink ref="I64" r:id="rId57"/>
+    <hyperlink ref="I65" r:id="rId58"/>
+    <hyperlink ref="I66" r:id="rId59"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId45"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId60"/>
 </worksheet>
 </file>
 

--- a/RIMEDIE/Directorio_Contactos_CDMX.xlsx
+++ b/RIMEDIE/Directorio_Contactos_CDMX.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Adriana\Desktop\afchavez-019\RIMEDIE\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="120" yWindow="30" windowWidth="23715" windowHeight="10050"/>
   </bookViews>
@@ -17,14 +12,14 @@
     <sheet name="Hoja3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Agentes Educativos'!$A$1:$S$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Agentes Educativos'!$A$1:$T$1</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="675" uniqueCount="293">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="691" uniqueCount="305">
   <si>
     <t>Nombre de la Escuela</t>
   </si>
@@ -903,6 +898,44 @@
   </si>
   <si>
     <t>Avenida Chapultepec 49, Colonia Centro (Área 1), C.P. 06000, Alcaldía Cuauhtémoc. Ciudad de México</t>
+  </si>
+  <si>
+    <t>Autoridad Educativa Federal de la CDMX</t>
+  </si>
+  <si>
+    <t>Red Social</t>
+  </si>
+  <si>
+    <t>Twitter: @educacionCDMX
+Facebook: 
+Secretaría de Educación, Ciencia, Tecnología e Innovación de la CDMX</t>
+  </si>
+  <si>
+    <t>María Luisa Gordillo Díaz</t>
+  </si>
+  <si>
+    <t>Directora General de Educación Normal y Actualización del Magisterio</t>
+  </si>
+  <si>
+    <t>Calle Repùblica de Brasil 31 Centro Histórico, Colonia Cento, Alcaldía Cuauhtémoc, CDMX</t>
+  </si>
+  <si>
+    <t>https://www2.aefcm.gob.mx/buzon_escolar/correo_buzon.jsp</t>
+  </si>
+  <si>
+    <t>Grupo Facebook</t>
+  </si>
+  <si>
+    <t>Educación Básica</t>
+  </si>
+  <si>
+    <t>Consejos Técnicos Escolares de la Educación Básica</t>
+  </si>
+  <si>
+    <t>Consejos Técnicos Escolares</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/groups/la.ruta.de.mejora.escolar/</t>
   </si>
 </sst>
 </file>
@@ -1092,7 +1125,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1150,8 +1183,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1214,7 +1260,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1249,7 +1295,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1458,10 +1504,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S66"/>
+  <dimension ref="A1:T68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A60" workbookViewId="0">
-      <selection activeCell="A66" sqref="A66"/>
+    <sheetView tabSelected="1" topLeftCell="A65" workbookViewId="0">
+      <selection activeCell="A68" sqref="A68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1473,12 +1519,13 @@
     <col min="5" max="5" width="24" style="2" customWidth="1"/>
     <col min="6" max="6" width="32.42578125" style="10" customWidth="1"/>
     <col min="7" max="7" width="37.140625" style="16" customWidth="1"/>
-    <col min="8" max="8" width="19" style="13" customWidth="1"/>
-    <col min="9" max="9" width="42" style="2" customWidth="1"/>
-    <col min="10" max="10" width="53.85546875" style="2" customWidth="1"/>
+    <col min="8" max="8" width="37.140625" style="23" customWidth="1"/>
+    <col min="9" max="9" width="19" style="13" customWidth="1"/>
+    <col min="10" max="10" width="42" style="2" customWidth="1"/>
+    <col min="11" max="11" width="53.85546875" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="55.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:20" ht="55.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="14" t="s">
         <v>229</v>
       </c>
@@ -1500,17 +1547,20 @@
       <c r="G1" s="14" t="s">
         <v>227</v>
       </c>
-      <c r="H1" s="11" t="s">
+      <c r="H1" s="18" t="s">
+        <v>294</v>
+      </c>
+      <c r="I1" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="J1" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="K1" s="6" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="17" t="s">
         <v>5</v>
       </c>
@@ -1530,21 +1580,22 @@
         <v>41</v>
       </c>
       <c r="G2" s="15"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="5" t="s">
+      <c r="H2" s="21"/>
+      <c r="I2" s="12"/>
+      <c r="J2" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="J2" s="4" t="s">
+      <c r="K2" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="R2">
-        <v>5</v>
-      </c>
-      <c r="S2" s="1" t="s">
+      <c r="S2">
+        <v>5</v>
+      </c>
+      <c r="T2" s="1" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="3" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="17" t="s">
         <v>5</v>
       </c>
@@ -1564,17 +1615,18 @@
         <v>46</v>
       </c>
       <c r="G3" s="15"/>
-      <c r="H3" s="13" t="s">
+      <c r="H3" s="22"/>
+      <c r="I3" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="J3" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="K3" s="2" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="4" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="17" t="s">
         <v>5</v>
       </c>
@@ -1594,14 +1646,15 @@
         <v>50</v>
       </c>
       <c r="G4" s="15"/>
-      <c r="H4" s="13">
+      <c r="H4" s="22"/>
+      <c r="I4" s="13">
         <v>51340770</v>
       </c>
-      <c r="J4" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+      <c r="K4" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="17" t="s">
         <v>5</v>
       </c>
@@ -1621,17 +1674,18 @@
         <v>53</v>
       </c>
       <c r="G5" s="15"/>
-      <c r="H5" s="13" t="s">
+      <c r="H5" s="22"/>
+      <c r="I5" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="I5" s="3" t="s">
+      <c r="J5" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="J5" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="6" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+      <c r="K5" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="17" t="s">
         <v>5</v>
       </c>
@@ -1651,14 +1705,15 @@
         <v>57</v>
       </c>
       <c r="G6" s="15"/>
-      <c r="H6" s="13" t="s">
+      <c r="H6" s="22"/>
+      <c r="I6" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="J6" s="2" t="s">
+      <c r="K6" s="2" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="7" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="17" t="s">
         <v>5</v>
       </c>
@@ -1678,17 +1733,18 @@
         <v>60</v>
       </c>
       <c r="G7" s="15"/>
-      <c r="H7" s="13" t="s">
+      <c r="H7" s="22"/>
+      <c r="I7" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="I7" s="3" t="s">
+      <c r="J7" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="J7" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+      <c r="K7" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="17" t="s">
         <v>5</v>
       </c>
@@ -1708,17 +1764,18 @@
         <v>64</v>
       </c>
       <c r="G8" s="15"/>
-      <c r="H8" s="13" t="s">
+      <c r="H8" s="22"/>
+      <c r="I8" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="I8" s="3" t="s">
+      <c r="J8" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="J8" s="2" t="s">
+      <c r="K8" s="2" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="9" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" s="17" t="s">
         <v>5</v>
       </c>
@@ -1738,17 +1795,18 @@
         <v>68</v>
       </c>
       <c r="G9" s="15"/>
-      <c r="H9" s="13" t="s">
+      <c r="H9" s="22"/>
+      <c r="I9" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="I9" s="3" t="s">
+      <c r="J9" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="J9" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+      <c r="K9" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A10" s="17" t="s">
         <v>5</v>
       </c>
@@ -1768,17 +1826,18 @@
         <v>72</v>
       </c>
       <c r="G10" s="15"/>
-      <c r="H10" s="13" t="s">
+      <c r="H10" s="22"/>
+      <c r="I10" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="I10" s="3" t="s">
+      <c r="J10" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="J10" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+      <c r="K10" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A11" s="17" t="s">
         <v>5</v>
       </c>
@@ -1798,17 +1857,18 @@
         <v>76</v>
       </c>
       <c r="G11" s="15"/>
-      <c r="H11" s="13" t="s">
+      <c r="H11" s="22"/>
+      <c r="I11" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="I11" s="3" t="s">
+      <c r="J11" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="J11" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="12" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+      <c r="K11" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A12" s="17" t="s">
         <v>5</v>
       </c>
@@ -1828,17 +1888,18 @@
         <v>82</v>
       </c>
       <c r="G12" s="15"/>
-      <c r="H12" s="13" t="s">
+      <c r="H12" s="22"/>
+      <c r="I12" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="I12" s="3" t="s">
+      <c r="J12" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="J12" s="2" t="s">
+      <c r="K12" s="2" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="13" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A13" s="17" t="s">
         <v>5</v>
       </c>
@@ -1858,17 +1919,18 @@
         <v>86</v>
       </c>
       <c r="G13" s="15"/>
-      <c r="H13" s="13" t="s">
+      <c r="H13" s="22"/>
+      <c r="I13" s="13" t="s">
         <v>87</v>
       </c>
-      <c r="I13" s="3" t="s">
+      <c r="J13" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="J13" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="14" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+      <c r="K13" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A14" s="17" t="s">
         <v>5</v>
       </c>
@@ -1888,17 +1950,18 @@
         <v>90</v>
       </c>
       <c r="G14" s="15"/>
-      <c r="H14" s="13" t="s">
+      <c r="H14" s="22"/>
+      <c r="I14" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="I14" s="3" t="s">
+      <c r="J14" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="J14" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="15" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+      <c r="K14" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A15" s="17" t="s">
         <v>5</v>
       </c>
@@ -1918,17 +1981,18 @@
         <v>94</v>
       </c>
       <c r="G15" s="15"/>
-      <c r="H15" s="13" t="s">
+      <c r="H15" s="22"/>
+      <c r="I15" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="I15" s="3" t="s">
+      <c r="J15" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="J15" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="16" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+      <c r="K15" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A16" s="17" t="s">
         <v>5</v>
       </c>
@@ -1948,14 +2012,15 @@
         <v>97</v>
       </c>
       <c r="G16" s="15"/>
-      <c r="H16" s="13" t="s">
+      <c r="H16" s="22"/>
+      <c r="I16" s="13" t="s">
         <v>98</v>
       </c>
-      <c r="J16" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="K16" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A17" s="17" t="s">
         <v>5</v>
       </c>
@@ -1975,17 +2040,18 @@
         <v>100</v>
       </c>
       <c r="G17" s="15"/>
-      <c r="H17" s="13" t="s">
+      <c r="H17" s="22"/>
+      <c r="I17" s="13" t="s">
         <v>101</v>
       </c>
-      <c r="I17" s="3" t="s">
+      <c r="J17" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="J17" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="K17" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A18" s="17" t="s">
         <v>5</v>
       </c>
@@ -2005,17 +2071,18 @@
         <v>104</v>
       </c>
       <c r="G18" s="15"/>
-      <c r="H18" s="13" t="s">
+      <c r="H18" s="22"/>
+      <c r="I18" s="13" t="s">
         <v>105</v>
       </c>
-      <c r="I18" s="3" t="s">
+      <c r="J18" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="J18" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="K18" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A19" s="17" t="s">
         <v>5</v>
       </c>
@@ -2035,17 +2102,18 @@
         <v>108</v>
       </c>
       <c r="G19" s="15"/>
-      <c r="H19" s="13" t="s">
+      <c r="H19" s="22"/>
+      <c r="I19" s="13" t="s">
         <v>109</v>
       </c>
-      <c r="I19" s="3" t="s">
+      <c r="J19" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="J19" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="K19" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A20" s="17" t="s">
         <v>5</v>
       </c>
@@ -2065,17 +2133,18 @@
         <v>112</v>
       </c>
       <c r="G20" s="15"/>
-      <c r="H20" s="13" t="s">
+      <c r="H20" s="22"/>
+      <c r="I20" s="13" t="s">
         <v>113</v>
       </c>
-      <c r="I20" s="3" t="s">
+      <c r="J20" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="J20" s="2" t="s">
+      <c r="K20" s="2" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A21" s="17" t="s">
         <v>5</v>
       </c>
@@ -2095,17 +2164,18 @@
         <v>116</v>
       </c>
       <c r="G21" s="15"/>
-      <c r="H21" s="13" t="s">
+      <c r="H21" s="22"/>
+      <c r="I21" s="13" t="s">
         <v>117</v>
       </c>
-      <c r="I21" s="3" t="s">
+      <c r="J21" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="J21" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="K21" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A22" s="17" t="s">
         <v>5</v>
       </c>
@@ -2125,17 +2195,18 @@
         <v>123</v>
       </c>
       <c r="G22" s="15"/>
-      <c r="H22" s="13" t="s">
+      <c r="H22" s="22"/>
+      <c r="I22" s="13" t="s">
         <v>124</v>
       </c>
-      <c r="I22" s="3" t="s">
+      <c r="J22" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="J22" s="2" t="s">
+      <c r="K22" s="2" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A23" s="17" t="s">
         <v>5</v>
       </c>
@@ -2155,11 +2226,12 @@
         <v>127</v>
       </c>
       <c r="G23" s="15"/>
-      <c r="J23" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="H23" s="22"/>
+      <c r="K23" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A24" s="17" t="s">
         <v>5</v>
       </c>
@@ -2179,17 +2251,18 @@
         <v>129</v>
       </c>
       <c r="G24" s="15"/>
-      <c r="H24" s="13" t="s">
+      <c r="H24" s="22"/>
+      <c r="I24" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="I24" s="3" t="s">
+      <c r="J24" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="J24" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="K24" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A25" s="17" t="s">
         <v>5</v>
       </c>
@@ -2209,17 +2282,18 @@
         <v>132</v>
       </c>
       <c r="G25" s="15"/>
-      <c r="H25" s="13" t="s">
+      <c r="H25" s="22"/>
+      <c r="I25" s="13" t="s">
         <v>133</v>
       </c>
-      <c r="I25" s="3" t="s">
+      <c r="J25" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="J25" s="2" t="s">
+      <c r="K25" s="2" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="26" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A26" s="17" t="s">
         <v>5</v>
       </c>
@@ -2239,17 +2313,18 @@
         <v>136</v>
       </c>
       <c r="G26" s="15"/>
-      <c r="H26" s="13" t="s">
+      <c r="H26" s="22"/>
+      <c r="I26" s="13" t="s">
         <v>137</v>
       </c>
-      <c r="I26" s="3" t="s">
+      <c r="J26" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="J26" s="2" t="s">
+      <c r="K26" s="2" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="27" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A27" s="17" t="s">
         <v>5</v>
       </c>
@@ -2269,17 +2344,18 @@
         <v>140</v>
       </c>
       <c r="G27" s="15"/>
-      <c r="H27" s="13" t="s">
+      <c r="H27" s="22"/>
+      <c r="I27" s="13" t="s">
         <v>141</v>
       </c>
-      <c r="I27" s="3" t="s">
+      <c r="J27" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="J27" s="2" t="s">
+      <c r="K27" s="2" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="28" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A28" s="17" t="s">
         <v>5</v>
       </c>
@@ -2299,17 +2375,18 @@
         <v>144</v>
       </c>
       <c r="G28" s="15"/>
-      <c r="H28" s="13" t="s">
+      <c r="H28" s="22"/>
+      <c r="I28" s="13" t="s">
         <v>145</v>
       </c>
-      <c r="I28" s="3" t="s">
+      <c r="J28" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="J28" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="K28" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A29" s="17" t="s">
         <v>5</v>
       </c>
@@ -2329,17 +2406,18 @@
         <v>148</v>
       </c>
       <c r="G29" s="15"/>
-      <c r="H29" s="13" t="s">
+      <c r="H29" s="22"/>
+      <c r="I29" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="I29" s="3" t="s">
+      <c r="J29" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="J29" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="K29" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A30" s="17" t="s">
         <v>5</v>
       </c>
@@ -2359,17 +2437,18 @@
         <v>151</v>
       </c>
       <c r="G30" s="15"/>
-      <c r="H30" s="13" t="s">
+      <c r="H30" s="22"/>
+      <c r="I30" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="I30" s="3" t="s">
+      <c r="J30" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="J30" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="K30" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A31" s="17" t="s">
         <v>5</v>
       </c>
@@ -2389,17 +2468,18 @@
         <v>154</v>
       </c>
       <c r="G31" s="15"/>
-      <c r="H31" s="13" t="s">
+      <c r="H31" s="22"/>
+      <c r="I31" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="I31" s="3" t="s">
+      <c r="J31" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="J31" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="K31" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A32" s="17" t="s">
         <v>5</v>
       </c>
@@ -2419,17 +2499,18 @@
         <v>157</v>
       </c>
       <c r="G32" s="15"/>
-      <c r="H32" s="13" t="s">
+      <c r="H32" s="22"/>
+      <c r="I32" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="I32" s="3" t="s">
+      <c r="J32" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="J32" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="K32" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A33" s="17" t="s">
         <v>5</v>
       </c>
@@ -2449,17 +2530,18 @@
         <v>160</v>
       </c>
       <c r="G33" s="15"/>
-      <c r="H33" s="13" t="s">
+      <c r="H33" s="22"/>
+      <c r="I33" s="13" t="s">
         <v>161</v>
       </c>
-      <c r="I33" s="3" t="s">
+      <c r="J33" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="J33" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="K33" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A34" s="17" t="s">
         <v>5</v>
       </c>
@@ -2479,17 +2561,18 @@
         <v>164</v>
       </c>
       <c r="G34" s="15"/>
-      <c r="H34" s="13" t="s">
+      <c r="H34" s="22"/>
+      <c r="I34" s="13" t="s">
         <v>165</v>
       </c>
-      <c r="I34" s="3" t="s">
+      <c r="J34" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="J34" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="K34" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A35" s="17" t="s">
         <v>5</v>
       </c>
@@ -2509,17 +2592,18 @@
         <v>168</v>
       </c>
       <c r="G35" s="15"/>
-      <c r="H35" s="13" t="s">
+      <c r="H35" s="22"/>
+      <c r="I35" s="13" t="s">
         <v>169</v>
       </c>
-      <c r="I35" s="3" t="s">
+      <c r="J35" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="J35" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="K35" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A36" s="17" t="s">
         <v>5</v>
       </c>
@@ -2539,17 +2623,18 @@
         <v>172</v>
       </c>
       <c r="G36" s="15"/>
-      <c r="H36" s="13" t="s">
+      <c r="H36" s="22"/>
+      <c r="I36" s="13" t="s">
         <v>173</v>
       </c>
-      <c r="I36" s="3" t="s">
+      <c r="J36" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="J36" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="K36" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A37" s="17" t="s">
         <v>5</v>
       </c>
@@ -2569,17 +2654,18 @@
         <v>176</v>
       </c>
       <c r="G37" s="15"/>
-      <c r="H37" s="13" t="s">
+      <c r="H37" s="22"/>
+      <c r="I37" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="I37" s="3" t="s">
+      <c r="J37" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="J37" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="K37" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A38" s="17" t="s">
         <v>5</v>
       </c>
@@ -2599,17 +2685,18 @@
         <v>179</v>
       </c>
       <c r="G38" s="15"/>
-      <c r="H38" s="13">
+      <c r="H38" s="22"/>
+      <c r="I38" s="13">
         <v>51340770</v>
       </c>
-      <c r="I38" s="3" t="s">
+      <c r="J38" s="3" t="s">
         <v>180</v>
       </c>
-      <c r="J38" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="K38" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A39" s="17" t="s">
         <v>5</v>
       </c>
@@ -2629,17 +2716,18 @@
         <v>182</v>
       </c>
       <c r="G39" s="15"/>
-      <c r="H39" s="13">
+      <c r="H39" s="22"/>
+      <c r="I39" s="13">
         <v>51340770</v>
       </c>
-      <c r="I39" s="3" t="s">
+      <c r="J39" s="3" t="s">
         <v>183</v>
       </c>
-      <c r="J39" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="K39" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A40" s="17" t="s">
         <v>5</v>
       </c>
@@ -2659,17 +2747,18 @@
         <v>185</v>
       </c>
       <c r="G40" s="15"/>
-      <c r="H40" s="13" t="s">
+      <c r="H40" s="22"/>
+      <c r="I40" s="13" t="s">
         <v>186</v>
       </c>
-      <c r="I40" s="3" t="s">
+      <c r="J40" s="3" t="s">
         <v>187</v>
       </c>
-      <c r="J40" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="K40" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A41" s="17" t="s">
         <v>5</v>
       </c>
@@ -2689,17 +2778,18 @@
         <v>189</v>
       </c>
       <c r="G41" s="15"/>
-      <c r="H41" s="13" t="s">
+      <c r="H41" s="22"/>
+      <c r="I41" s="13" t="s">
         <v>190</v>
       </c>
-      <c r="I41" s="3" t="s">
+      <c r="J41" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="J41" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="K41" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A42" s="17" t="s">
         <v>5</v>
       </c>
@@ -2719,17 +2809,18 @@
         <v>193</v>
       </c>
       <c r="G42" s="15"/>
-      <c r="H42" s="13" t="s">
+      <c r="H42" s="22"/>
+      <c r="I42" s="13" t="s">
         <v>194</v>
       </c>
-      <c r="I42" s="3" t="s">
+      <c r="J42" s="3" t="s">
         <v>195</v>
       </c>
-      <c r="J42" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="K42" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A43" s="17" t="s">
         <v>5</v>
       </c>
@@ -2749,14 +2840,15 @@
         <v>197</v>
       </c>
       <c r="G43" s="15"/>
-      <c r="H43" s="13" t="s">
+      <c r="H43" s="22"/>
+      <c r="I43" s="13" t="s">
         <v>198</v>
       </c>
-      <c r="J43" s="2" t="s">
+      <c r="K43" s="2" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="44" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A44" s="17" t="s">
         <v>5</v>
       </c>
@@ -2776,17 +2868,18 @@
         <v>200</v>
       </c>
       <c r="G44" s="15"/>
-      <c r="H44" s="13" t="s">
+      <c r="H44" s="22"/>
+      <c r="I44" s="13" t="s">
         <v>105</v>
       </c>
-      <c r="I44" s="3" t="s">
+      <c r="J44" s="3" t="s">
         <v>201</v>
       </c>
-      <c r="J44" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="K44" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A45" s="17" t="s">
         <v>5</v>
       </c>
@@ -2806,14 +2899,15 @@
         <v>203</v>
       </c>
       <c r="G45" s="15"/>
-      <c r="H45" s="13" t="s">
+      <c r="H45" s="22"/>
+      <c r="I45" s="13" t="s">
         <v>98</v>
       </c>
-      <c r="J45" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="K45" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A46" s="17" t="s">
         <v>5</v>
       </c>
@@ -2833,14 +2927,15 @@
         <v>204</v>
       </c>
       <c r="G46" s="15"/>
-      <c r="H46" s="13" t="s">
+      <c r="H46" s="22"/>
+      <c r="I46" s="13" t="s">
         <v>206</v>
       </c>
-      <c r="J46" s="2" t="s">
+      <c r="K46" s="2" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="47" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A47" s="17" t="s">
         <v>5</v>
       </c>
@@ -2860,17 +2955,18 @@
         <v>208</v>
       </c>
       <c r="G47" s="15"/>
-      <c r="H47" s="13" t="s">
+      <c r="H47" s="22"/>
+      <c r="I47" s="13" t="s">
         <v>209</v>
       </c>
-      <c r="I47" s="3" t="s">
+      <c r="J47" s="3" t="s">
         <v>210</v>
       </c>
-      <c r="J47" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="48" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="K47" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A48" s="17" t="s">
         <v>5</v>
       </c>
@@ -2890,17 +2986,18 @@
         <v>212</v>
       </c>
       <c r="G48" s="15"/>
-      <c r="H48" s="13" t="s">
+      <c r="H48" s="22"/>
+      <c r="I48" s="13" t="s">
         <v>213</v>
       </c>
-      <c r="I48" s="3" t="s">
+      <c r="J48" s="3" t="s">
         <v>216</v>
       </c>
-      <c r="J48" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="K48" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A49" s="17" t="s">
         <v>5</v>
       </c>
@@ -2920,17 +3017,18 @@
         <v>215</v>
       </c>
       <c r="G49" s="15"/>
-      <c r="H49" s="13" t="s">
+      <c r="H49" s="22"/>
+      <c r="I49" s="13" t="s">
         <v>105</v>
       </c>
-      <c r="I49" s="3" t="s">
+      <c r="J49" s="3" t="s">
         <v>217</v>
       </c>
-      <c r="J49" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="K49" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A50" s="17" t="s">
         <v>5</v>
       </c>
@@ -2950,17 +3048,18 @@
         <v>219</v>
       </c>
       <c r="G50" s="15"/>
-      <c r="H50" s="13" t="s">
+      <c r="H50" s="22"/>
+      <c r="I50" s="13" t="s">
         <v>220</v>
       </c>
-      <c r="I50" s="3" t="s">
+      <c r="J50" s="3" t="s">
         <v>221</v>
       </c>
-      <c r="J50" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="51" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="K50" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A51" s="17" t="s">
         <v>5</v>
       </c>
@@ -2982,14 +3081,15 @@
       <c r="G51" s="15" t="s">
         <v>228</v>
       </c>
-      <c r="I51" s="3" t="s">
+      <c r="H51" s="22"/>
+      <c r="J51" s="3" t="s">
         <v>224</v>
       </c>
-      <c r="J51" s="2" t="s">
+      <c r="K51" s="2" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="52" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" s="25" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A52" s="17" t="s">
         <v>5</v>
       </c>
@@ -3008,14 +3108,19 @@
       <c r="F52" s="10" t="s">
         <v>241</v>
       </c>
-      <c r="H52" s="13">
+      <c r="G52" s="17"/>
+      <c r="H52" s="13" t="s">
+        <v>295</v>
+      </c>
+      <c r="I52" s="13">
         <v>51340770</v>
       </c>
-      <c r="I52" s="21" t="s">
+      <c r="J52" s="24" t="s">
         <v>242</v>
       </c>
-    </row>
-    <row r="53" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="K52" s="2"/>
+    </row>
+    <row r="53" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A53" s="17" t="s">
         <v>5</v>
       </c>
@@ -3034,17 +3139,17 @@
       <c r="F53" s="10" t="s">
         <v>244</v>
       </c>
-      <c r="H53" s="13" t="s">
+      <c r="I53" s="13" t="s">
         <v>220</v>
       </c>
-      <c r="I53" s="3" t="s">
+      <c r="J53" s="3" t="s">
         <v>245</v>
       </c>
-      <c r="J53" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="54" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="K53" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A54" s="17" t="s">
         <v>5</v>
       </c>
@@ -3063,17 +3168,17 @@
       <c r="F54" s="10" t="s">
         <v>247</v>
       </c>
-      <c r="H54" s="13" t="s">
+      <c r="I54" s="13" t="s">
         <v>248</v>
       </c>
-      <c r="I54" s="3" t="s">
+      <c r="J54" s="3" t="s">
         <v>249</v>
       </c>
-      <c r="J54" s="2" t="s">
+      <c r="K54" s="2" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="55" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A55" s="17" t="s">
         <v>5</v>
       </c>
@@ -3092,17 +3197,17 @@
       <c r="F55" s="10" t="s">
         <v>251</v>
       </c>
-      <c r="H55" s="13" t="s">
+      <c r="I55" s="13" t="s">
         <v>252</v>
       </c>
-      <c r="I55" s="3" t="s">
+      <c r="J55" s="3" t="s">
         <v>253</v>
       </c>
-      <c r="J55" s="2" t="s">
+      <c r="K55" s="2" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="56" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A56" s="17" t="s">
         <v>5</v>
       </c>
@@ -3121,17 +3226,17 @@
       <c r="F56" s="10" t="s">
         <v>255</v>
       </c>
-      <c r="H56" s="13" t="s">
+      <c r="I56" s="13" t="s">
         <v>256</v>
       </c>
-      <c r="I56" s="3" t="s">
+      <c r="J56" s="3" t="s">
         <v>257</v>
       </c>
-      <c r="J56" s="2" t="s">
+      <c r="K56" s="2" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="57" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A57" s="17" t="s">
         <v>5</v>
       </c>
@@ -3150,17 +3255,17 @@
       <c r="F57" s="10" t="s">
         <v>259</v>
       </c>
-      <c r="H57" s="13" t="s">
+      <c r="I57" s="13" t="s">
         <v>260</v>
       </c>
-      <c r="I57" s="3" t="s">
+      <c r="J57" s="3" t="s">
         <v>261</v>
       </c>
-      <c r="J57" s="2" t="s">
+      <c r="K57" s="2" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="58" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A58" s="17" t="s">
         <v>5</v>
       </c>
@@ -3179,17 +3284,17 @@
       <c r="F58" s="10" t="s">
         <v>263</v>
       </c>
-      <c r="H58" s="13" t="s">
+      <c r="I58" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="I58" s="3" t="s">
+      <c r="J58" s="3" t="s">
         <v>264</v>
       </c>
-      <c r="J58" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="59" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="K58" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A59" s="17" t="s">
         <v>5</v>
       </c>
@@ -3208,17 +3313,17 @@
       <c r="F59" s="10" t="s">
         <v>266</v>
       </c>
-      <c r="H59" s="13" t="s">
+      <c r="I59" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="I59" s="3" t="s">
+      <c r="J59" s="3" t="s">
         <v>267</v>
       </c>
-      <c r="J59" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="60" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="K59" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A60" s="17" t="s">
         <v>5</v>
       </c>
@@ -3237,17 +3342,17 @@
       <c r="F60" s="10" t="s">
         <v>269</v>
       </c>
-      <c r="H60" s="13" t="s">
+      <c r="I60" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="I60" s="3" t="s">
+      <c r="J60" s="3" t="s">
         <v>270</v>
       </c>
-      <c r="J60" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="61" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="K60" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A61" s="17" t="s">
         <v>5</v>
       </c>
@@ -3266,17 +3371,17 @@
       <c r="F61" s="10" t="s">
         <v>273</v>
       </c>
-      <c r="H61" s="13" t="s">
+      <c r="I61" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="I61" s="3" t="s">
+      <c r="J61" s="3" t="s">
         <v>274</v>
       </c>
-      <c r="J61" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="62" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="K61" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A62" s="17" t="s">
         <v>5</v>
       </c>
@@ -3295,17 +3400,17 @@
       <c r="F62" s="10" t="s">
         <v>276</v>
       </c>
-      <c r="H62" s="13" t="s">
+      <c r="I62" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="I62" s="3" t="s">
+      <c r="J62" s="3" t="s">
         <v>277</v>
       </c>
-      <c r="J62" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="63" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="K62" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A63" s="17" t="s">
         <v>5</v>
       </c>
@@ -3324,17 +3429,17 @@
       <c r="F63" s="10" t="s">
         <v>279</v>
       </c>
-      <c r="H63" s="13" t="s">
+      <c r="I63" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="I63" s="3" t="s">
+      <c r="J63" s="3" t="s">
         <v>280</v>
       </c>
-      <c r="J63" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="64" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="K63" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A64" s="17" t="s">
         <v>5</v>
       </c>
@@ -3353,17 +3458,17 @@
       <c r="F64" s="10" t="s">
         <v>282</v>
       </c>
-      <c r="H64" s="13" t="s">
+      <c r="I64" s="13" t="s">
         <v>286</v>
       </c>
-      <c r="I64" s="3" t="s">
+      <c r="J64" s="3" t="s">
         <v>283</v>
       </c>
-      <c r="J64" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="65" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="K64" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A65" s="17" t="s">
         <v>5</v>
       </c>
@@ -3382,17 +3487,17 @@
       <c r="F65" s="10" t="s">
         <v>285</v>
       </c>
-      <c r="H65" s="13" t="s">
+      <c r="I65" s="13" t="s">
         <v>287</v>
       </c>
-      <c r="I65" s="3" t="s">
+      <c r="J65" s="3" t="s">
         <v>288</v>
       </c>
-      <c r="J65" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="66" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="K65" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A66" s="17" t="s">
         <v>5</v>
       </c>
@@ -3411,81 +3516,132 @@
       <c r="F66" s="10" t="s">
         <v>290</v>
       </c>
-      <c r="H66" s="13" t="s">
+      <c r="I66" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="I66" s="3" t="s">
+      <c r="J66" s="3" t="s">
         <v>291</v>
       </c>
-      <c r="J66" s="2" t="s">
+      <c r="K66" s="2" t="s">
         <v>292</v>
       </c>
     </row>
+    <row r="67" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A67" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="B67" s="20" t="s">
+        <v>232</v>
+      </c>
+      <c r="C67" s="20" t="s">
+        <v>233</v>
+      </c>
+      <c r="D67" s="13" t="s">
+        <v>296</v>
+      </c>
+      <c r="E67" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="F67" s="10" t="s">
+        <v>297</v>
+      </c>
+      <c r="I67" s="13">
+        <v>5536018799</v>
+      </c>
+      <c r="J67" s="3" t="s">
+        <v>299</v>
+      </c>
+      <c r="K67" s="2" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A68" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="B68" s="20" t="s">
+        <v>300</v>
+      </c>
+      <c r="C68" s="20" t="s">
+        <v>301</v>
+      </c>
+      <c r="D68" s="13" t="s">
+        <v>302</v>
+      </c>
+      <c r="E68" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="H68" s="26" t="s">
+        <v>304</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:S1"/>
+  <autoFilter ref="A1:T1"/>
   <hyperlinks>
-    <hyperlink ref="I2" r:id="rId1"/>
-    <hyperlink ref="I3" r:id="rId2"/>
-    <hyperlink ref="I5" r:id="rId3"/>
-    <hyperlink ref="I7" r:id="rId4"/>
-    <hyperlink ref="I8" r:id="rId5"/>
-    <hyperlink ref="I9" r:id="rId6"/>
-    <hyperlink ref="I10" r:id="rId7"/>
-    <hyperlink ref="I11" r:id="rId8"/>
-    <hyperlink ref="S2" r:id="rId9"/>
-    <hyperlink ref="I12" r:id="rId10"/>
-    <hyperlink ref="I13" r:id="rId11"/>
-    <hyperlink ref="I14" r:id="rId12"/>
-    <hyperlink ref="I15" r:id="rId13"/>
-    <hyperlink ref="I17" r:id="rId14"/>
-    <hyperlink ref="I18" r:id="rId15"/>
-    <hyperlink ref="I19" r:id="rId16"/>
-    <hyperlink ref="I20" r:id="rId17"/>
-    <hyperlink ref="I21" r:id="rId18"/>
-    <hyperlink ref="I22" r:id="rId19"/>
-    <hyperlink ref="I24" r:id="rId20"/>
-    <hyperlink ref="I25" r:id="rId21"/>
-    <hyperlink ref="I26" r:id="rId22"/>
-    <hyperlink ref="I27" r:id="rId23"/>
-    <hyperlink ref="I28" r:id="rId24"/>
-    <hyperlink ref="I29" r:id="rId25"/>
-    <hyperlink ref="I30" r:id="rId26"/>
-    <hyperlink ref="I31" r:id="rId27"/>
-    <hyperlink ref="I32" r:id="rId28"/>
-    <hyperlink ref="I33" r:id="rId29"/>
-    <hyperlink ref="I34" r:id="rId30"/>
-    <hyperlink ref="I35" r:id="rId31"/>
-    <hyperlink ref="I36" r:id="rId32"/>
-    <hyperlink ref="I37" r:id="rId33"/>
-    <hyperlink ref="I38" r:id="rId34"/>
-    <hyperlink ref="I39" r:id="rId35"/>
-    <hyperlink ref="I40" r:id="rId36"/>
-    <hyperlink ref="I41" r:id="rId37"/>
-    <hyperlink ref="I42" r:id="rId38"/>
-    <hyperlink ref="I44" r:id="rId39"/>
-    <hyperlink ref="I47" r:id="rId40"/>
-    <hyperlink ref="I48" r:id="rId41"/>
-    <hyperlink ref="I49" r:id="rId42"/>
-    <hyperlink ref="I50" r:id="rId43"/>
-    <hyperlink ref="I51" r:id="rId44"/>
-    <hyperlink ref="I52" r:id="rId45"/>
-    <hyperlink ref="I53" r:id="rId46"/>
-    <hyperlink ref="I54" r:id="rId47"/>
-    <hyperlink ref="I55" r:id="rId48"/>
-    <hyperlink ref="I56" r:id="rId49"/>
-    <hyperlink ref="I57" r:id="rId50"/>
-    <hyperlink ref="I58" r:id="rId51"/>
-    <hyperlink ref="I59" r:id="rId52"/>
-    <hyperlink ref="I60" r:id="rId53"/>
-    <hyperlink ref="I61" r:id="rId54"/>
-    <hyperlink ref="I62" r:id="rId55"/>
-    <hyperlink ref="I63" r:id="rId56"/>
-    <hyperlink ref="I64" r:id="rId57"/>
-    <hyperlink ref="I65" r:id="rId58"/>
-    <hyperlink ref="I66" r:id="rId59"/>
+    <hyperlink ref="J2" r:id="rId1"/>
+    <hyperlink ref="J3" r:id="rId2"/>
+    <hyperlink ref="J5" r:id="rId3"/>
+    <hyperlink ref="J7" r:id="rId4"/>
+    <hyperlink ref="J8" r:id="rId5"/>
+    <hyperlink ref="J9" r:id="rId6"/>
+    <hyperlink ref="J10" r:id="rId7"/>
+    <hyperlink ref="J11" r:id="rId8"/>
+    <hyperlink ref="T2" r:id="rId9"/>
+    <hyperlink ref="J12" r:id="rId10"/>
+    <hyperlink ref="J13" r:id="rId11"/>
+    <hyperlink ref="J14" r:id="rId12"/>
+    <hyperlink ref="J15" r:id="rId13"/>
+    <hyperlink ref="J17" r:id="rId14"/>
+    <hyperlink ref="J18" r:id="rId15"/>
+    <hyperlink ref="J19" r:id="rId16"/>
+    <hyperlink ref="J20" r:id="rId17"/>
+    <hyperlink ref="J21" r:id="rId18"/>
+    <hyperlink ref="J22" r:id="rId19"/>
+    <hyperlink ref="J24" r:id="rId20"/>
+    <hyperlink ref="J25" r:id="rId21"/>
+    <hyperlink ref="J26" r:id="rId22"/>
+    <hyperlink ref="J27" r:id="rId23"/>
+    <hyperlink ref="J28" r:id="rId24"/>
+    <hyperlink ref="J29" r:id="rId25"/>
+    <hyperlink ref="J30" r:id="rId26"/>
+    <hyperlink ref="J31" r:id="rId27"/>
+    <hyperlink ref="J32" r:id="rId28"/>
+    <hyperlink ref="J33" r:id="rId29"/>
+    <hyperlink ref="J34" r:id="rId30"/>
+    <hyperlink ref="J35" r:id="rId31"/>
+    <hyperlink ref="J36" r:id="rId32"/>
+    <hyperlink ref="J37" r:id="rId33"/>
+    <hyperlink ref="J38" r:id="rId34"/>
+    <hyperlink ref="J39" r:id="rId35"/>
+    <hyperlink ref="J40" r:id="rId36"/>
+    <hyperlink ref="J41" r:id="rId37"/>
+    <hyperlink ref="J42" r:id="rId38"/>
+    <hyperlink ref="J44" r:id="rId39"/>
+    <hyperlink ref="J47" r:id="rId40"/>
+    <hyperlink ref="J48" r:id="rId41"/>
+    <hyperlink ref="J49" r:id="rId42"/>
+    <hyperlink ref="J50" r:id="rId43"/>
+    <hyperlink ref="J51" r:id="rId44"/>
+    <hyperlink ref="J52" r:id="rId45"/>
+    <hyperlink ref="J53" r:id="rId46"/>
+    <hyperlink ref="J54" r:id="rId47"/>
+    <hyperlink ref="J55" r:id="rId48"/>
+    <hyperlink ref="J56" r:id="rId49"/>
+    <hyperlink ref="J57" r:id="rId50"/>
+    <hyperlink ref="J58" r:id="rId51"/>
+    <hyperlink ref="J59" r:id="rId52"/>
+    <hyperlink ref="J60" r:id="rId53"/>
+    <hyperlink ref="J61" r:id="rId54"/>
+    <hyperlink ref="J62" r:id="rId55"/>
+    <hyperlink ref="J63" r:id="rId56"/>
+    <hyperlink ref="J64" r:id="rId57"/>
+    <hyperlink ref="J65" r:id="rId58"/>
+    <hyperlink ref="J66" r:id="rId59"/>
+    <hyperlink ref="J67" r:id="rId60"/>
+    <hyperlink ref="H68" r:id="rId61"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId60"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId62"/>
 </worksheet>
 </file>
 
